--- a/source documents/schedule.xlsx
+++ b/source documents/schedule.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26960" windowHeight="23560" tabRatio="500"/>
+    <workbookView xWindow="7800" yWindow="0" windowWidth="18820" windowHeight="14980" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Calendar" sheetId="1" r:id="rId1"/>
     <sheet name="Notes" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Calendar!$A$1:$Q$45</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Calendar!$A$2:$R$66</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="82">
   <si>
     <t>Day</t>
   </si>
@@ -53,12 +53,6 @@
   </si>
   <si>
     <t>19:30</t>
-  </si>
-  <si>
-    <t>Session 4</t>
-  </si>
-  <si>
-    <t>Session 10</t>
   </si>
   <si>
     <t>Breakfast</t>
@@ -156,9 +150,6 @@
 Program</t>
   </si>
   <si>
-    <t>Session 6</t>
-  </si>
-  <si>
     <t>Mininet/EIT&amp;E</t>
   </si>
   <si>
@@ -177,9 +168,6 @@
     <t>22:30</t>
   </si>
   <si>
-    <t>Session 5</t>
-  </si>
-  <si>
     <t>Closing</t>
   </si>
   <si>
@@ -195,12 +183,6 @@
     <t>Posters and demos</t>
   </si>
   <si>
-    <t>Session 3</t>
-  </si>
-  <si>
-    <t>Session 9</t>
-  </si>
-  <si>
     <t>Mininet                      Tutorial</t>
   </si>
   <si>
@@ -241,9 +223,6 @@
   </si>
   <si>
     <t>12:15</t>
-  </si>
-  <si>
-    <t>Session 2</t>
   </si>
   <si>
     <t>16:35</t>
@@ -310,81 +289,6 @@
     <t>Session 1                                        Open + Keynote</t>
   </si>
   <si>
-    <t>Session 7</t>
-  </si>
-  <si>
-    <t>Session 8                   +                                    Best of CCR</t>
-  </si>
-  <si>
-    <t>Session 11</t>
-  </si>
-  <si>
-    <t>Session 12                                    +                                    Best of CCR</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="13"/>
-        <color theme="4"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>Note 1</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color theme="4"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>: The main conference, workshops and tutorials take place at the Grand Ballroom.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="13"/>
-        <color theme="4"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>Note 2</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color theme="4"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>: Breakfastand lunch for registered workshops and tutorials attendees will be served at the Mezzanine (2nd floor).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="13"/>
-        <color theme="4"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>Note 3</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color theme="4"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>: Poster and demo sessions take place at the State Ballroom.</t>
-    </r>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Reception                                                                             </t>
     </r>
@@ -401,6 +305,48 @@
   <si>
     <t>V&amp;C</t>
   </si>
+  <si>
+    <t>Session 2                         Data Plane</t>
+  </si>
+  <si>
+    <t>Session 3             Network Architecture 1</t>
+  </si>
+  <si>
+    <t>Session 4         Middleboxes and Network Services</t>
+  </si>
+  <si>
+    <t>Session 5      Wireless 1</t>
+  </si>
+  <si>
+    <t>Session 6         Monitoring and Diagnostics</t>
+  </si>
+  <si>
+    <t>Session 7   Novel Datacenter Network Designs</t>
+  </si>
+  <si>
+    <t>Session 8                 Network     Architecture 2        Best of CCR</t>
+  </si>
+  <si>
+    <t>Session 9      Scheduling in Datacenter Networks</t>
+  </si>
+  <si>
+    <t>Session 10          Wireless 2</t>
+  </si>
+  <si>
+    <t>Session 11      Network Operations</t>
+  </si>
+  <si>
+    <t>Session 12     Transport and CC    Best of CCR</t>
+  </si>
+  <si>
+    <t>17:30</t>
+  </si>
+  <si>
+    <t>17:00</t>
+  </si>
+  <si>
+    <t>17:45</t>
+  </si>
 </sst>
 </file>
 
@@ -409,7 +355,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[mm].0"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -493,13 +439,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="4"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
       <sz val="13"/>
       <color theme="4"/>
       <name val="Arial"/>
@@ -676,15 +615,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -1177,32 +1107,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thick">
@@ -1303,19 +1207,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color theme="1"/>
       </left>
@@ -1421,41 +1312,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thick">
         <color auto="1"/>
       </right>
-      <top/>
-      <bottom style="thick">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right/>
       <top/>
       <bottom style="thick">
         <color rgb="FF000000"/>
@@ -1541,8 +1401,87 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="742">
+  <cellStyleXfs count="764">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1602,307 +1541,329 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2286,611 +2247,605 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="210">
+  <cellXfs count="208">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="20" fontId="15" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="15" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="12" borderId="23" xfId="60" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="12" borderId="21" xfId="60" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="12" borderId="26" xfId="60" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="12" borderId="25" xfId="60" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="12" borderId="22" xfId="60" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="14" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="12" borderId="22" xfId="60" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="12" borderId="20" xfId="60" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="12" borderId="25" xfId="60" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="12" borderId="24" xfId="60" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="12" borderId="21" xfId="60" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="12" borderId="43" xfId="60" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="5" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="12" borderId="42" xfId="60" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="5" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="5" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="15" fillId="3" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="15" fillId="3" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="15" fillId="3" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="15" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="15" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="15" fillId="3" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="15" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="15" fillId="3" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="11" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="14" fillId="3" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="14" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="14" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="14" fillId="3" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="11" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="3" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="3" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="3" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="3" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="9" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="11" borderId="9" xfId="59" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="9" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="11" borderId="8" xfId="59" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="9" fillId="11" borderId="59" xfId="59" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="5" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="5" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="11" borderId="61" xfId="59" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="11" borderId="55" xfId="59" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="5" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="5" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="11" borderId="57" xfId="59" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="11" borderId="13" xfId="59" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="11" borderId="12" xfId="59" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="20" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="9" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="11" borderId="55" xfId="59" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="20" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="9" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="11" borderId="59" xfId="59" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="9" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="14" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="14" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="14" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="5" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="3" borderId="56" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="3" borderId="35" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="35" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="5" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="5" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="5" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="11" borderId="56" xfId="59" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="10" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="10" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="10" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="17" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="17" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="17" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="11" borderId="13" xfId="59" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="11" borderId="10" xfId="59" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="10" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="13" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="28" xfId="60" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="23" xfId="60" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="8" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="8" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="10" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="10" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="10" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="12" borderId="24" xfId="60" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="12" borderId="26" xfId="60" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="12" borderId="27" xfId="60" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="5" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="17" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="17" fillId="13" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="17" fillId="13" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="10" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="17" fillId="13" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="9" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="9" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="14" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="14" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="11" borderId="54" xfId="59" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="10" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="15" borderId="15" xfId="359" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="11" borderId="58" xfId="59" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="15" borderId="11" xfId="359" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="10" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="15" borderId="14" xfId="359" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="15" borderId="10" xfId="359" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="15" borderId="16" xfId="359" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="15" borderId="17" xfId="359" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="15" borderId="12" xfId="359" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="15" borderId="15" xfId="359" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="15" borderId="11" xfId="359" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="15" borderId="18" xfId="359" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="15" borderId="13" xfId="359" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="11" borderId="60" xfId="59" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="5" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="5" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="20" fontId="18" fillId="13" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="18" fillId="13" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="10" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="18" fillId="13" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="18" fillId="13" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="5" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="12" borderId="25" xfId="60" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="12" borderId="27" xfId="60" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="12" borderId="28" xfId="60" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="29" xfId="60" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="24" xfId="60" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="8" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="8" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="10" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="10" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="11" borderId="14" xfId="59" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="11" borderId="11" xfId="59" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="11" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="4" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="4" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="4" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="4" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="14" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="10" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="10" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="10" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="17" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="17" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="4" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="17" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="4" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="742">
+  <cellStyles count="764">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -3260,6 +3215,17 @@
     <cellStyle name="Followed Hyperlink" xfId="737" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="739" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="741" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="743" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="745" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="747" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="749" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="751" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="753" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="755" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="757" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="759" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="761" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="763" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -3629,6 +3595,17 @@
     <cellStyle name="Hyperlink" xfId="736" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="738" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="740" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="742" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="744" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="746" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="748" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="750" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="752" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="754" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="756" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="758" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="760" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="762" builtinId="8" hidden="1"/>
     <cellStyle name="Input" xfId="59" builtinId="20"/>
     <cellStyle name="Neutral" xfId="359" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3968,10 +3945,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R65"/>
+  <sheetPr enableFormatConditionsCalculation="0">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:R66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19:G24"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -3986,1796 +3966,1791 @@
     <col min="19" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:18" ht="15" thickBot="1"/>
+    <row r="2" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A2" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="147" t="s">
+      <c r="B2" s="143" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="144"/>
+      <c r="D2" s="156" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="156"/>
+      <c r="F2" s="156"/>
+      <c r="G2" s="157"/>
+      <c r="H2" s="162" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="163"/>
+      <c r="J2" s="156" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="156"/>
+      <c r="L2" s="164" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="157"/>
+      <c r="N2" s="156" t="s">
+        <v>11</v>
+      </c>
+      <c r="O2" s="156"/>
+      <c r="P2" s="156"/>
+      <c r="Q2" s="14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1">
+      <c r="A3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="145" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="146"/>
+      <c r="D3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="165" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="166"/>
+      <c r="J3" s="166"/>
+      <c r="K3" s="166"/>
+      <c r="L3" s="166"/>
+      <c r="M3" s="167"/>
+      <c r="N3" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="P3" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q3" s="13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="15" customHeight="1">
+      <c r="A4" s="161">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="B4" s="147" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="131"/>
+      <c r="D4" s="158" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="149" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="149" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="149" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="130" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="131"/>
+      <c r="J4" s="130" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="131"/>
+      <c r="L4" s="130" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" s="131"/>
+      <c r="N4" s="170" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="149" t="s">
+        <v>10</v>
+      </c>
+      <c r="P4" s="172" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="161">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="R4" s="2"/>
+    </row>
+    <row r="5" spans="1:18" ht="15" customHeight="1">
+      <c r="A5" s="161"/>
+      <c r="B5" s="148"/>
+      <c r="C5" s="133"/>
+      <c r="D5" s="159"/>
+      <c r="E5" s="160"/>
+      <c r="F5" s="160"/>
+      <c r="G5" s="150"/>
+      <c r="H5" s="132"/>
+      <c r="I5" s="133"/>
+      <c r="J5" s="132"/>
+      <c r="K5" s="133"/>
+      <c r="L5" s="132"/>
+      <c r="M5" s="133"/>
+      <c r="N5" s="171"/>
+      <c r="O5" s="150"/>
+      <c r="P5" s="173"/>
+      <c r="Q5" s="161"/>
+      <c r="R5" s="2"/>
+    </row>
+    <row r="6" spans="1:18" ht="15" customHeight="1">
+      <c r="A6" s="161">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="B6" s="176" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="177"/>
+      <c r="D6" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="151" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="152"/>
+      <c r="J6" s="127" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" s="128"/>
+      <c r="L6" s="127" t="s">
+        <v>5</v>
+      </c>
+      <c r="M6" s="128"/>
+      <c r="N6" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="O6" s="168" t="s">
+        <v>5</v>
+      </c>
+      <c r="P6" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q6" s="161">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="R6" s="2"/>
+    </row>
+    <row r="7" spans="1:18" ht="15" customHeight="1">
+      <c r="A7" s="161"/>
+      <c r="B7" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="148"/>
-      <c r="D1" s="130" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="130"/>
-      <c r="F1" s="130"/>
-      <c r="G1" s="134"/>
-      <c r="H1" s="131" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="132"/>
-      <c r="J1" s="130" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" s="130"/>
-      <c r="L1" s="133" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" s="134"/>
-      <c r="N1" s="130" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="130"/>
-      <c r="P1" s="130"/>
-      <c r="Q1" s="16" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1">
-      <c r="A2" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="149" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="150"/>
-      <c r="D2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="6" t="s">
+      <c r="C7" s="75"/>
+      <c r="D7" s="78" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="76" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="76" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="197" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="153" t="s">
+        <v>65</v>
+      </c>
+      <c r="I7" s="154"/>
+      <c r="J7" s="155" t="s">
+        <v>71</v>
+      </c>
+      <c r="K7" s="95"/>
+      <c r="L7" s="155" t="s">
+        <v>75</v>
+      </c>
+      <c r="M7" s="95"/>
+      <c r="N7" s="79" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="7" t="s">
+      <c r="O7" s="169"/>
+      <c r="P7" s="123" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q7" s="161"/>
+      <c r="R7" s="2"/>
+    </row>
+    <row r="8" spans="1:18" ht="15" customHeight="1">
+      <c r="A8" s="161">
+        <v>0.375</v>
+      </c>
+      <c r="B8" s="74"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="197"/>
+      <c r="H8" s="153"/>
+      <c r="I8" s="154"/>
+      <c r="J8" s="155"/>
+      <c r="K8" s="95"/>
+      <c r="L8" s="155"/>
+      <c r="M8" s="95"/>
+      <c r="N8" s="79"/>
+      <c r="O8" s="122" t="s">
+        <v>27</v>
+      </c>
+      <c r="P8" s="124"/>
+      <c r="Q8" s="161">
+        <v>0.375</v>
+      </c>
+      <c r="R8" s="2"/>
+    </row>
+    <row r="9" spans="1:18" ht="15" customHeight="1">
+      <c r="A9" s="161"/>
+      <c r="B9" s="74"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="197"/>
+      <c r="H9" s="153"/>
+      <c r="I9" s="154"/>
+      <c r="J9" s="155"/>
+      <c r="K9" s="95"/>
+      <c r="L9" s="155"/>
+      <c r="M9" s="95"/>
+      <c r="N9" s="79"/>
+      <c r="O9" s="122"/>
+      <c r="P9" s="124"/>
+      <c r="Q9" s="161"/>
+      <c r="R9" s="2"/>
+    </row>
+    <row r="10" spans="1:18" ht="15" customHeight="1">
+      <c r="A10" s="161">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="B10" s="74"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="78"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="197"/>
+      <c r="H10" s="153"/>
+      <c r="I10" s="154"/>
+      <c r="J10" s="155"/>
+      <c r="K10" s="95"/>
+      <c r="L10" s="155"/>
+      <c r="M10" s="95"/>
+      <c r="N10" s="79"/>
+      <c r="O10" s="122"/>
+      <c r="P10" s="124"/>
+      <c r="Q10" s="161">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="R10" s="2"/>
+    </row>
+    <row r="11" spans="1:18" ht="15" customHeight="1">
+      <c r="A11" s="161"/>
+      <c r="B11" s="74"/>
+      <c r="C11" s="75"/>
+      <c r="D11" s="78"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="197"/>
+      <c r="H11" s="153"/>
+      <c r="I11" s="154"/>
+      <c r="J11" s="155"/>
+      <c r="K11" s="95"/>
+      <c r="L11" s="155"/>
+      <c r="M11" s="95"/>
+      <c r="N11" s="79"/>
+      <c r="O11" s="122"/>
+      <c r="P11" s="124"/>
+      <c r="Q11" s="161"/>
+      <c r="R11" s="2"/>
+    </row>
+    <row r="12" spans="1:18" ht="15" customHeight="1">
+      <c r="A12" s="161">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="B12" s="74"/>
+      <c r="C12" s="75"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="197"/>
+      <c r="H12" s="198" t="s">
+        <v>50</v>
+      </c>
+      <c r="I12" s="199"/>
+      <c r="J12" s="200" t="s">
+        <v>42</v>
+      </c>
+      <c r="K12" s="201"/>
+      <c r="L12" s="174" t="s">
+        <v>42</v>
+      </c>
+      <c r="M12" s="175"/>
+      <c r="N12" s="79"/>
+      <c r="O12" s="122"/>
+      <c r="P12" s="124"/>
+      <c r="Q12" s="161">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="R12" s="2"/>
+    </row>
+    <row r="13" spans="1:18" ht="15" customHeight="1">
+      <c r="A13" s="161"/>
+      <c r="B13" s="74"/>
+      <c r="C13" s="75"/>
+      <c r="D13" s="78"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="197"/>
+      <c r="H13" s="130" t="s">
+        <v>4</v>
+      </c>
+      <c r="I13" s="131"/>
+      <c r="J13" s="130" t="s">
+        <v>4</v>
+      </c>
+      <c r="K13" s="131"/>
+      <c r="L13" s="130" t="s">
+        <v>4</v>
+      </c>
+      <c r="M13" s="131"/>
+      <c r="N13" s="79"/>
+      <c r="O13" s="122"/>
+      <c r="P13" s="124"/>
+      <c r="Q13" s="161"/>
+      <c r="R13" s="2"/>
+    </row>
+    <row r="14" spans="1:18" ht="15" customHeight="1">
+      <c r="A14" s="161">
+        <v>0.4375</v>
+      </c>
+      <c r="B14" s="74"/>
+      <c r="C14" s="75"/>
+      <c r="D14" s="78"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="197"/>
+      <c r="H14" s="132"/>
+      <c r="I14" s="133"/>
+      <c r="J14" s="132"/>
+      <c r="K14" s="133"/>
+      <c r="L14" s="132"/>
+      <c r="M14" s="133"/>
+      <c r="N14" s="79"/>
+      <c r="O14" s="122"/>
+      <c r="P14" s="124"/>
+      <c r="Q14" s="161">
+        <v>0.4375</v>
+      </c>
+      <c r="R14" s="2"/>
+    </row>
+    <row r="15" spans="1:18" ht="15" customHeight="1">
+      <c r="A15" s="161"/>
+      <c r="B15" s="74"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="78"/>
+      <c r="E15" s="76"/>
+      <c r="F15" s="76"/>
+      <c r="G15" s="197"/>
+      <c r="H15" s="134" t="s">
+        <v>43</v>
+      </c>
+      <c r="I15" s="135"/>
+      <c r="J15" s="134" t="s">
+        <v>43</v>
+      </c>
+      <c r="K15" s="135"/>
+      <c r="L15" s="134" t="s">
+        <v>43</v>
+      </c>
+      <c r="M15" s="135"/>
+      <c r="N15" s="79"/>
+      <c r="O15" s="122"/>
+      <c r="P15" s="124"/>
+      <c r="Q15" s="161"/>
+      <c r="R15" s="2"/>
+    </row>
+    <row r="16" spans="1:18" ht="15" customHeight="1">
+      <c r="A16" s="161">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="B16" s="74"/>
+      <c r="C16" s="75"/>
+      <c r="D16" s="78"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="197"/>
+      <c r="H16" s="90" t="s">
+        <v>68</v>
+      </c>
+      <c r="I16" s="91"/>
+      <c r="J16" s="90" t="s">
+        <v>72</v>
+      </c>
+      <c r="K16" s="91"/>
+      <c r="L16" s="90" t="s">
+        <v>76</v>
+      </c>
+      <c r="M16" s="91"/>
+      <c r="N16" s="79"/>
+      <c r="O16" s="122"/>
+      <c r="P16" s="124"/>
+      <c r="Q16" s="161">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="R16" s="2"/>
+    </row>
+    <row r="17" spans="1:18" ht="15" customHeight="1">
+      <c r="A17" s="161"/>
+      <c r="B17" s="74"/>
+      <c r="C17" s="75"/>
+      <c r="D17" s="78"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="76"/>
+      <c r="G17" s="197"/>
+      <c r="H17" s="90"/>
+      <c r="I17" s="91"/>
+      <c r="J17" s="90"/>
+      <c r="K17" s="91"/>
+      <c r="L17" s="90"/>
+      <c r="M17" s="91"/>
+      <c r="N17" s="79"/>
+      <c r="O17" s="122"/>
+      <c r="P17" s="124"/>
+      <c r="Q17" s="161"/>
+      <c r="R17" s="2"/>
+    </row>
+    <row r="18" spans="1:18" ht="15" customHeight="1">
+      <c r="A18" s="161">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="B18" s="74"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="78"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="197"/>
+      <c r="H18" s="90"/>
+      <c r="I18" s="91"/>
+      <c r="J18" s="90"/>
+      <c r="K18" s="91"/>
+      <c r="L18" s="90"/>
+      <c r="M18" s="91"/>
+      <c r="N18" s="79"/>
+      <c r="O18" s="122"/>
+      <c r="P18" s="124"/>
+      <c r="Q18" s="161">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="R18" s="2"/>
+    </row>
+    <row r="19" spans="1:18" ht="15" customHeight="1">
+      <c r="A19" s="161"/>
+      <c r="B19" s="74"/>
+      <c r="C19" s="75"/>
+      <c r="D19" s="78"/>
+      <c r="E19" s="76"/>
+      <c r="F19" s="76"/>
+      <c r="G19" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="H19" s="90"/>
+      <c r="I19" s="91"/>
+      <c r="J19" s="90"/>
+      <c r="K19" s="91"/>
+      <c r="L19" s="90"/>
+      <c r="M19" s="91"/>
+      <c r="N19" s="79"/>
+      <c r="O19" s="122"/>
+      <c r="P19" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q19" s="161"/>
+      <c r="R19" s="2"/>
+    </row>
+    <row r="20" spans="1:18" ht="15" customHeight="1">
+      <c r="A20" s="161">
+        <v>0.5</v>
+      </c>
+      <c r="B20" s="74"/>
+      <c r="C20" s="75"/>
+      <c r="D20" s="78"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="178" t="s">
+        <v>53</v>
+      </c>
+      <c r="I20" s="179"/>
+      <c r="J20" s="178" t="s">
+        <v>53</v>
+      </c>
+      <c r="K20" s="179"/>
+      <c r="L20" s="178" t="s">
+        <v>53</v>
+      </c>
+      <c r="M20" s="179"/>
+      <c r="N20" s="79"/>
+      <c r="O20" s="122"/>
+      <c r="P20" s="125"/>
+      <c r="Q20" s="161">
+        <v>0.5</v>
+      </c>
+      <c r="R20" s="2"/>
+    </row>
+    <row r="21" spans="1:18" ht="15" customHeight="1">
+      <c r="A21" s="161"/>
+      <c r="B21" s="74"/>
+      <c r="C21" s="75"/>
+      <c r="D21" s="78"/>
+      <c r="E21" s="76"/>
+      <c r="F21" s="76"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="136" t="s">
+        <v>20</v>
+      </c>
+      <c r="I21" s="137"/>
+      <c r="J21" s="136" t="s">
+        <v>20</v>
+      </c>
+      <c r="K21" s="137"/>
+      <c r="L21" s="136" t="s">
+        <v>20</v>
+      </c>
+      <c r="M21" s="137"/>
+      <c r="N21" s="79"/>
+      <c r="O21" s="122"/>
+      <c r="P21" s="125"/>
+      <c r="Q21" s="161"/>
+      <c r="R21" s="2"/>
+    </row>
+    <row r="22" spans="1:18" ht="15" customHeight="1">
+      <c r="A22" s="161">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="B22" s="74"/>
+      <c r="C22" s="75"/>
+      <c r="D22" s="78"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="138"/>
+      <c r="I22" s="139"/>
+      <c r="J22" s="138"/>
+      <c r="K22" s="139"/>
+      <c r="L22" s="138"/>
+      <c r="M22" s="139"/>
+      <c r="N22" s="79"/>
+      <c r="O22" s="122"/>
+      <c r="P22" s="125"/>
+      <c r="Q22" s="161">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="R22" s="2"/>
+    </row>
+    <row r="23" spans="1:18" ht="15" customHeight="1">
+      <c r="A23" s="161"/>
+      <c r="B23" s="74"/>
+      <c r="C23" s="75"/>
+      <c r="D23" s="78"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="138"/>
+      <c r="I23" s="139"/>
+      <c r="J23" s="138"/>
+      <c r="K23" s="139"/>
+      <c r="L23" s="138"/>
+      <c r="M23" s="139"/>
+      <c r="N23" s="79"/>
+      <c r="O23" s="122"/>
+      <c r="P23" s="125"/>
+      <c r="Q23" s="161"/>
+      <c r="R23" s="2"/>
+    </row>
+    <row r="24" spans="1:18" ht="15" customHeight="1">
+      <c r="A24" s="161">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="B24" s="74"/>
+      <c r="C24" s="75"/>
+      <c r="D24" s="78"/>
+      <c r="E24" s="76"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="138"/>
+      <c r="I24" s="139"/>
+      <c r="J24" s="138"/>
+      <c r="K24" s="139"/>
+      <c r="L24" s="138"/>
+      <c r="M24" s="139"/>
+      <c r="N24" s="79"/>
+      <c r="O24" s="122"/>
+      <c r="P24" s="125"/>
+      <c r="Q24" s="161">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="R24" s="2"/>
+    </row>
+    <row r="25" spans="1:18" ht="15" customHeight="1">
+      <c r="A25" s="161"/>
+      <c r="B25" s="74"/>
+      <c r="C25" s="75"/>
+      <c r="D25" s="78"/>
+      <c r="E25" s="76"/>
+      <c r="F25" s="76"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="140"/>
+      <c r="I25" s="141"/>
+      <c r="J25" s="140"/>
+      <c r="K25" s="141"/>
+      <c r="L25" s="140"/>
+      <c r="M25" s="141"/>
+      <c r="N25" s="79"/>
+      <c r="O25" s="122"/>
+      <c r="P25" s="125"/>
+      <c r="Q25" s="161"/>
+      <c r="R25" s="2"/>
+    </row>
+    <row r="26" spans="1:18" ht="15" customHeight="1">
+      <c r="A26" s="161">
+        <v>0.5625</v>
+      </c>
+      <c r="B26" s="74"/>
+      <c r="C26" s="75"/>
+      <c r="D26" s="78"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="H26" s="127" t="s">
+        <v>51</v>
+      </c>
+      <c r="I26" s="128"/>
+      <c r="J26" s="127" t="s">
+        <v>51</v>
+      </c>
+      <c r="K26" s="128"/>
+      <c r="L26" s="127" t="s">
+        <v>51</v>
+      </c>
+      <c r="M26" s="128"/>
+      <c r="N26" s="79"/>
+      <c r="O26" s="122"/>
+      <c r="P26" s="125"/>
+      <c r="Q26" s="161">
+        <v>0.5625</v>
+      </c>
+      <c r="R26" s="2"/>
+    </row>
+    <row r="27" spans="1:18" ht="15" customHeight="1">
+      <c r="A27" s="161"/>
+      <c r="B27" s="74"/>
+      <c r="C27" s="75"/>
+      <c r="D27" s="78"/>
+      <c r="E27" s="76"/>
+      <c r="F27" s="76"/>
+      <c r="G27" s="77" t="s">
+        <v>64</v>
+      </c>
+      <c r="H27" s="94" t="s">
+        <v>69</v>
+      </c>
+      <c r="I27" s="95"/>
+      <c r="J27" s="155" t="s">
+        <v>73</v>
+      </c>
+      <c r="K27" s="95"/>
+      <c r="L27" s="155" t="s">
+        <v>77</v>
+      </c>
+      <c r="M27" s="95"/>
+      <c r="N27" s="79"/>
+      <c r="O27" s="122"/>
+      <c r="P27" s="142"/>
+      <c r="Q27" s="161"/>
+      <c r="R27" s="2"/>
+    </row>
+    <row r="28" spans="1:18" ht="15" customHeight="1">
+      <c r="A28" s="161">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="B28" s="74"/>
+      <c r="C28" s="75"/>
+      <c r="D28" s="78"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="77"/>
+      <c r="H28" s="94"/>
+      <c r="I28" s="95"/>
+      <c r="J28" s="155"/>
+      <c r="K28" s="95"/>
+      <c r="L28" s="155"/>
+      <c r="M28" s="95"/>
+      <c r="N28" s="79"/>
+      <c r="O28" s="122"/>
+      <c r="P28" s="142"/>
+      <c r="Q28" s="161">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="R28" s="2"/>
+    </row>
+    <row r="29" spans="1:18" ht="15" customHeight="1">
+      <c r="A29" s="161"/>
+      <c r="B29" s="74"/>
+      <c r="C29" s="75"/>
+      <c r="D29" s="78"/>
+      <c r="E29" s="76"/>
+      <c r="F29" s="76"/>
+      <c r="G29" s="77"/>
+      <c r="H29" s="94"/>
+      <c r="I29" s="95"/>
+      <c r="J29" s="155"/>
+      <c r="K29" s="95"/>
+      <c r="L29" s="155"/>
+      <c r="M29" s="95"/>
+      <c r="N29" s="79"/>
+      <c r="O29" s="122"/>
+      <c r="P29" s="142"/>
+      <c r="Q29" s="161"/>
+      <c r="R29" s="2"/>
+    </row>
+    <row r="30" spans="1:18" ht="15" customHeight="1">
+      <c r="A30" s="161">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="B30" s="74"/>
+      <c r="C30" s="75"/>
+      <c r="D30" s="78"/>
+      <c r="E30" s="76"/>
+      <c r="F30" s="76"/>
+      <c r="G30" s="77"/>
+      <c r="H30" s="94"/>
+      <c r="I30" s="95"/>
+      <c r="J30" s="155"/>
+      <c r="K30" s="95"/>
+      <c r="L30" s="155"/>
+      <c r="M30" s="95"/>
+      <c r="N30" s="79"/>
+      <c r="O30" s="122"/>
+      <c r="P30" s="142"/>
+      <c r="Q30" s="161">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="R30" s="2"/>
+    </row>
+    <row r="31" spans="1:18" ht="15" customHeight="1">
+      <c r="A31" s="161"/>
+      <c r="B31" s="74"/>
+      <c r="C31" s="75"/>
+      <c r="D31" s="78"/>
+      <c r="E31" s="76"/>
+      <c r="F31" s="76"/>
+      <c r="G31" s="77"/>
+      <c r="H31" s="94"/>
+      <c r="I31" s="95"/>
+      <c r="J31" s="155"/>
+      <c r="K31" s="95"/>
+      <c r="L31" s="155"/>
+      <c r="M31" s="95"/>
+      <c r="N31" s="79"/>
+      <c r="O31" s="122"/>
+      <c r="P31" s="142"/>
+      <c r="Q31" s="161"/>
+      <c r="R31" s="2"/>
+    </row>
+    <row r="32" spans="1:18" ht="15" customHeight="1">
+      <c r="A32" s="161">
+        <v>0.625</v>
+      </c>
+      <c r="B32" s="74"/>
+      <c r="C32" s="75"/>
+      <c r="D32" s="78"/>
+      <c r="E32" s="76"/>
+      <c r="F32" s="76"/>
+      <c r="G32" s="77"/>
+      <c r="H32" s="94"/>
+      <c r="I32" s="95"/>
+      <c r="J32" s="155"/>
+      <c r="K32" s="95"/>
+      <c r="L32" s="155"/>
+      <c r="M32" s="95"/>
+      <c r="N32" s="79"/>
+      <c r="O32" s="122"/>
+      <c r="P32" s="142"/>
+      <c r="Q32" s="161">
+        <v>0.625</v>
+      </c>
+      <c r="R32" s="2"/>
+    </row>
+    <row r="33" spans="1:18" ht="15" customHeight="1">
+      <c r="A33" s="161"/>
+      <c r="B33" s="74"/>
+      <c r="C33" s="75"/>
+      <c r="D33" s="78"/>
+      <c r="E33" s="76"/>
+      <c r="F33" s="76"/>
+      <c r="G33" s="77"/>
+      <c r="H33" s="94"/>
+      <c r="I33" s="95"/>
+      <c r="J33" s="155"/>
+      <c r="K33" s="95"/>
+      <c r="L33" s="155"/>
+      <c r="M33" s="95"/>
+      <c r="N33" s="79"/>
+      <c r="O33" s="122"/>
+      <c r="P33" s="142"/>
+      <c r="Q33" s="161"/>
+      <c r="R33" s="2"/>
+    </row>
+    <row r="34" spans="1:18" ht="15" customHeight="1">
+      <c r="A34" s="161">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="B34" s="74"/>
+      <c r="C34" s="75"/>
+      <c r="D34" s="78"/>
+      <c r="E34" s="76"/>
+      <c r="F34" s="76"/>
+      <c r="G34" s="77"/>
+      <c r="H34" s="92" t="s">
+        <v>52</v>
+      </c>
+      <c r="I34" s="93"/>
+      <c r="J34" s="126" t="s">
+        <v>52</v>
+      </c>
+      <c r="K34" s="93"/>
+      <c r="L34" s="126" t="s">
+        <v>52</v>
+      </c>
+      <c r="M34" s="93"/>
+      <c r="N34" s="79"/>
+      <c r="O34" s="122"/>
+      <c r="P34" s="125"/>
+      <c r="Q34" s="161">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="R34" s="2"/>
+    </row>
+    <row r="35" spans="1:18" ht="15" customHeight="1">
+      <c r="A35" s="161"/>
+      <c r="B35" s="74"/>
+      <c r="C35" s="75"/>
+      <c r="D35" s="78"/>
+      <c r="E35" s="76"/>
+      <c r="F35" s="76"/>
+      <c r="G35" s="77"/>
+      <c r="H35" s="106" t="s">
+        <v>39</v>
+      </c>
+      <c r="I35" s="101"/>
+      <c r="J35" s="100" t="s">
+        <v>39</v>
+      </c>
+      <c r="K35" s="101"/>
+      <c r="L35" s="100" t="s">
+        <v>39</v>
+      </c>
+      <c r="M35" s="101"/>
+      <c r="N35" s="79"/>
+      <c r="O35" s="122"/>
+      <c r="P35" s="125"/>
+      <c r="Q35" s="161"/>
+      <c r="R35" s="2"/>
+    </row>
+    <row r="36" spans="1:18" ht="15" customHeight="1">
+      <c r="A36" s="161">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="B36" s="74"/>
+      <c r="C36" s="75"/>
+      <c r="D36" s="78"/>
+      <c r="E36" s="76"/>
+      <c r="F36" s="76"/>
+      <c r="G36" s="77"/>
+      <c r="H36" s="107"/>
+      <c r="I36" s="103"/>
+      <c r="J36" s="102"/>
+      <c r="K36" s="103"/>
+      <c r="L36" s="102"/>
+      <c r="M36" s="103"/>
+      <c r="N36" s="79"/>
+      <c r="O36" s="122"/>
+      <c r="P36" s="125"/>
+      <c r="Q36" s="161">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="R36" s="2"/>
+    </row>
+    <row r="37" spans="1:18" ht="15" customHeight="1">
+      <c r="A37" s="161"/>
+      <c r="B37" s="74"/>
+      <c r="C37" s="75"/>
+      <c r="D37" s="78"/>
+      <c r="E37" s="76"/>
+      <c r="F37" s="76"/>
+      <c r="G37" s="77"/>
+      <c r="H37" s="108"/>
+      <c r="I37" s="105"/>
+      <c r="J37" s="104"/>
+      <c r="K37" s="105"/>
+      <c r="L37" s="104"/>
+      <c r="M37" s="105"/>
+      <c r="N37" s="79"/>
+      <c r="O37" s="122"/>
+      <c r="P37" s="125"/>
+      <c r="Q37" s="161"/>
+      <c r="R37" s="2"/>
+    </row>
+    <row r="38" spans="1:18" ht="15" customHeight="1">
+      <c r="A38" s="161">
+        <v>0.6875</v>
+      </c>
+      <c r="B38" s="74"/>
+      <c r="C38" s="75"/>
+      <c r="D38" s="78"/>
+      <c r="E38" s="76"/>
+      <c r="F38" s="76"/>
+      <c r="G38" s="77"/>
+      <c r="H38" s="129" t="s">
+        <v>54</v>
+      </c>
+      <c r="I38" s="98"/>
+      <c r="J38" s="97" t="s">
+        <v>54</v>
+      </c>
+      <c r="K38" s="98"/>
+      <c r="L38" s="97" t="s">
+        <v>54</v>
+      </c>
+      <c r="M38" s="98"/>
+      <c r="N38" s="79"/>
+      <c r="O38" s="122"/>
+      <c r="P38" s="125"/>
+      <c r="Q38" s="161">
+        <v>0.6875</v>
+      </c>
+      <c r="R38" s="2"/>
+    </row>
+    <row r="39" spans="1:18" ht="15" customHeight="1">
+      <c r="A39" s="161"/>
+      <c r="B39" s="74"/>
+      <c r="C39" s="75"/>
+      <c r="D39" s="78"/>
+      <c r="E39" s="76"/>
+      <c r="F39" s="76"/>
+      <c r="G39" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="H39" s="99" t="s">
+        <v>70</v>
+      </c>
+      <c r="I39" s="91"/>
+      <c r="J39" s="90" t="s">
+        <v>74</v>
+      </c>
+      <c r="K39" s="91"/>
+      <c r="L39" s="90" t="s">
+        <v>78</v>
+      </c>
+      <c r="M39" s="91"/>
+      <c r="N39" s="79"/>
+      <c r="O39" s="122"/>
+      <c r="P39" s="125"/>
+      <c r="Q39" s="161"/>
+      <c r="R39" s="2"/>
+    </row>
+    <row r="40" spans="1:18" ht="15" customHeight="1">
+      <c r="A40" s="161">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="B40" s="74"/>
+      <c r="C40" s="75"/>
+      <c r="D40" s="78"/>
+      <c r="E40" s="76"/>
+      <c r="F40" s="76"/>
+      <c r="G40" s="57"/>
+      <c r="H40" s="99"/>
+      <c r="I40" s="91"/>
+      <c r="J40" s="90"/>
+      <c r="K40" s="91"/>
+      <c r="L40" s="90"/>
+      <c r="M40" s="91"/>
+      <c r="N40" s="79"/>
+      <c r="O40" s="122"/>
+      <c r="P40" s="125"/>
+      <c r="Q40" s="161">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="R40" s="2"/>
+    </row>
+    <row r="41" spans="1:18" ht="15" customHeight="1">
+      <c r="A41" s="161"/>
+      <c r="B41" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="C41" s="67"/>
+      <c r="D41" s="78"/>
+      <c r="E41" s="76"/>
+      <c r="F41" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="G41" s="57"/>
+      <c r="H41" s="99"/>
+      <c r="I41" s="91"/>
+      <c r="J41" s="90"/>
+      <c r="K41" s="91"/>
+      <c r="L41" s="90"/>
+      <c r="M41" s="91"/>
+      <c r="N41" s="79"/>
+      <c r="O41" s="122"/>
+      <c r="P41" s="125"/>
+      <c r="Q41" s="161"/>
+      <c r="R41" s="2"/>
+    </row>
+    <row r="42" spans="1:18" ht="15" customHeight="1">
+      <c r="A42" s="183">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="B42" s="68"/>
+      <c r="C42" s="69"/>
+      <c r="D42" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="E42" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="F42" s="58"/>
+      <c r="G42" s="59"/>
+      <c r="H42" s="99"/>
+      <c r="I42" s="91"/>
+      <c r="J42" s="90"/>
+      <c r="K42" s="91"/>
+      <c r="L42" s="90"/>
+      <c r="M42" s="91"/>
+      <c r="N42" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="O42" s="122"/>
+      <c r="P42" s="125"/>
+      <c r="Q42" s="161">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="R42" s="2"/>
+    </row>
+    <row r="43" spans="1:18" ht="15" customHeight="1">
+      <c r="A43" s="183"/>
+      <c r="B43" s="70"/>
+      <c r="C43" s="71"/>
+      <c r="D43" s="62"/>
+      <c r="E43" s="61"/>
+      <c r="F43" s="55"/>
+      <c r="G43" s="60"/>
+      <c r="H43" s="99"/>
+      <c r="I43" s="91"/>
+      <c r="J43" s="86" t="s">
+        <v>57</v>
+      </c>
+      <c r="K43" s="87"/>
+      <c r="L43" s="88" t="s">
+        <v>57</v>
+      </c>
+      <c r="M43" s="89"/>
+      <c r="N43" s="63"/>
+      <c r="O43" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="P43" s="125"/>
+      <c r="Q43" s="161"/>
+      <c r="R43" s="2"/>
+    </row>
+    <row r="44" spans="1:18" ht="15" customHeight="1">
+      <c r="A44" s="183">
+        <v>0.75</v>
+      </c>
+      <c r="B44" s="70"/>
+      <c r="C44" s="71"/>
+      <c r="D44" s="184"/>
+      <c r="E44" s="184"/>
+      <c r="F44" s="184"/>
+      <c r="G44" s="185"/>
+      <c r="H44" s="96" t="s">
+        <v>55</v>
+      </c>
+      <c r="I44" s="87"/>
+      <c r="J44" s="202" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="135" t="s">
+      <c r="K44" s="203"/>
+      <c r="L44" s="80" t="s">
+        <v>35</v>
+      </c>
+      <c r="M44" s="81"/>
+      <c r="N44" s="22"/>
+      <c r="O44" s="22"/>
+      <c r="P44" s="125"/>
+      <c r="Q44" s="161">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" ht="15" customHeight="1">
+      <c r="A45" s="183"/>
+      <c r="B45" s="70"/>
+      <c r="C45" s="71"/>
+      <c r="D45" s="184"/>
+      <c r="E45" s="184"/>
+      <c r="F45" s="184"/>
+      <c r="G45" s="185"/>
+      <c r="H45" s="41"/>
+      <c r="I45" s="42"/>
+      <c r="J45" s="204"/>
+      <c r="K45" s="205"/>
+      <c r="L45" s="82"/>
+      <c r="M45" s="83"/>
+      <c r="N45" s="22"/>
+      <c r="O45" s="22"/>
+      <c r="P45" s="125"/>
+      <c r="Q45" s="161"/>
+    </row>
+    <row r="46" spans="1:18" ht="15" customHeight="1">
+      <c r="A46" s="183">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="B46" s="70"/>
+      <c r="C46" s="71"/>
+      <c r="D46" s="195" t="s">
+        <v>7</v>
+      </c>
+      <c r="E46" s="195"/>
+      <c r="F46" s="195"/>
+      <c r="G46" s="196"/>
+      <c r="H46" s="43"/>
+      <c r="I46" s="44"/>
+      <c r="J46" s="204"/>
+      <c r="K46" s="205"/>
+      <c r="L46" s="82"/>
+      <c r="M46" s="83"/>
+      <c r="N46" s="22"/>
+      <c r="O46" s="22"/>
+      <c r="P46" s="125"/>
+      <c r="Q46" s="161">
+        <v>0.77083333333333337</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" ht="15" customHeight="1">
+      <c r="A47" s="183"/>
+      <c r="B47" s="70"/>
+      <c r="C47" s="71"/>
+      <c r="D47" s="193" t="s">
+        <v>66</v>
+      </c>
+      <c r="E47" s="193"/>
+      <c r="F47" s="193"/>
+      <c r="G47" s="194"/>
+      <c r="H47" s="43"/>
+      <c r="I47" s="44"/>
+      <c r="J47" s="204"/>
+      <c r="K47" s="205"/>
+      <c r="L47" s="82"/>
+      <c r="M47" s="83"/>
+      <c r="N47" s="22"/>
+      <c r="O47" s="22"/>
+      <c r="P47" s="125"/>
+      <c r="Q47" s="161"/>
+      <c r="R47" s="2"/>
+    </row>
+    <row r="48" spans="1:18" ht="15" customHeight="1">
+      <c r="A48" s="183">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="B48" s="70"/>
+      <c r="C48" s="71"/>
+      <c r="D48" s="193"/>
+      <c r="E48" s="193"/>
+      <c r="F48" s="193"/>
+      <c r="G48" s="194"/>
+      <c r="H48" s="43"/>
+      <c r="I48" s="44"/>
+      <c r="J48" s="206"/>
+      <c r="K48" s="207"/>
+      <c r="L48" s="84"/>
+      <c r="M48" s="85"/>
+      <c r="N48" s="22"/>
+      <c r="O48" s="22"/>
+      <c r="P48" s="23"/>
+      <c r="Q48" s="161">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="R48" s="2"/>
+    </row>
+    <row r="49" spans="1:18" ht="15" customHeight="1">
+      <c r="A49" s="183"/>
+      <c r="B49" s="70"/>
+      <c r="C49" s="71"/>
+      <c r="D49" s="193"/>
+      <c r="E49" s="193"/>
+      <c r="F49" s="193"/>
+      <c r="G49" s="194"/>
+      <c r="H49" s="45"/>
+      <c r="I49" s="46"/>
+      <c r="J49" s="29"/>
+      <c r="K49" s="30"/>
+      <c r="L49" s="9"/>
+      <c r="M49" s="22"/>
+      <c r="N49" s="22"/>
+      <c r="O49" s="22"/>
+      <c r="P49" s="23"/>
+      <c r="Q49" s="161"/>
+      <c r="R49" s="2"/>
+    </row>
+    <row r="50" spans="1:18" ht="15" customHeight="1">
+      <c r="A50" s="182">
+        <v>0.8125</v>
+      </c>
+      <c r="B50" s="70"/>
+      <c r="C50" s="71"/>
+      <c r="D50" s="193"/>
+      <c r="E50" s="193"/>
+      <c r="F50" s="193"/>
+      <c r="G50" s="194"/>
+      <c r="H50" s="120" t="s">
+        <v>9</v>
+      </c>
+      <c r="I50" s="121"/>
+      <c r="J50" s="31"/>
+      <c r="K50" s="32"/>
+      <c r="L50" s="9"/>
+      <c r="M50" s="22"/>
+      <c r="N50" s="22"/>
+      <c r="O50" s="22"/>
+      <c r="P50" s="23"/>
+      <c r="Q50" s="180">
+        <v>0.8125</v>
+      </c>
+      <c r="R50" s="2"/>
+    </row>
+    <row r="51" spans="1:18" ht="15" customHeight="1">
+      <c r="A51" s="182"/>
+      <c r="B51" s="70"/>
+      <c r="C51" s="71"/>
+      <c r="D51" s="193"/>
+      <c r="E51" s="193"/>
+      <c r="F51" s="193"/>
+      <c r="G51" s="194"/>
+      <c r="H51" s="114" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="136"/>
-      <c r="J2" s="136"/>
-      <c r="K2" s="136"/>
-      <c r="L2" s="136"/>
-      <c r="M2" s="137"/>
-      <c r="N2" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="P2" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q2" s="15" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" ht="15" customHeight="1">
-      <c r="A3" s="119">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="B3" s="151" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="98"/>
-      <c r="D3" s="157" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="124" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="124" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="124" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="97" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="98"/>
-      <c r="J3" s="97" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="98"/>
-      <c r="L3" s="97" t="s">
-        <v>12</v>
-      </c>
-      <c r="M3" s="98"/>
-      <c r="N3" s="141" t="s">
-        <v>12</v>
-      </c>
-      <c r="O3" s="124" t="s">
-        <v>12</v>
-      </c>
-      <c r="P3" s="143" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q3" s="119">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="R3" s="2"/>
-    </row>
-    <row r="4" spans="1:18" ht="15" customHeight="1">
-      <c r="A4" s="119"/>
-      <c r="B4" s="152"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="158"/>
-      <c r="E4" s="125"/>
-      <c r="F4" s="125"/>
-      <c r="G4" s="138"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="99"/>
-      <c r="K4" s="100"/>
-      <c r="L4" s="99"/>
-      <c r="M4" s="100"/>
-      <c r="N4" s="142"/>
-      <c r="O4" s="138"/>
-      <c r="P4" s="144"/>
-      <c r="Q4" s="119"/>
-      <c r="R4" s="2"/>
-    </row>
-    <row r="5" spans="1:18" ht="15" customHeight="1">
-      <c r="A5" s="119">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="B5" s="126" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="127"/>
-      <c r="D5" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="45" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="45" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="153" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" s="154"/>
-      <c r="J5" s="145" t="s">
-        <v>5</v>
-      </c>
-      <c r="K5" s="146"/>
-      <c r="L5" s="145" t="s">
-        <v>5</v>
-      </c>
-      <c r="M5" s="146"/>
-      <c r="N5" s="122" t="s">
-        <v>5</v>
-      </c>
-      <c r="O5" s="139" t="s">
-        <v>5</v>
-      </c>
-      <c r="P5" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q5" s="119">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="R5" s="2"/>
-    </row>
-    <row r="6" spans="1:18" ht="15" customHeight="1">
-      <c r="A6" s="119"/>
-      <c r="B6" s="117" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="118"/>
-      <c r="D6" s="84" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="85" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="85" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="86" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" s="155" t="s">
-        <v>72</v>
-      </c>
-      <c r="I6" s="156"/>
-      <c r="J6" s="128" t="s">
-        <v>38</v>
-      </c>
-      <c r="K6" s="129"/>
-      <c r="L6" s="128" t="s">
-        <v>45</v>
-      </c>
-      <c r="M6" s="129"/>
-      <c r="N6" s="123"/>
-      <c r="O6" s="140"/>
-      <c r="P6" s="176" t="s">
+      <c r="I51" s="115"/>
+      <c r="J51" s="189" t="s">
+        <v>41</v>
+      </c>
+      <c r="K51" s="190"/>
+      <c r="L51" s="9"/>
+      <c r="M51" s="22"/>
+      <c r="N51" s="22"/>
+      <c r="O51" s="22"/>
+      <c r="P51" s="23"/>
+      <c r="Q51" s="180"/>
+      <c r="R51" s="2"/>
+    </row>
+    <row r="52" spans="1:18" ht="15" customHeight="1">
+      <c r="A52" s="182">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="B52" s="70"/>
+      <c r="C52" s="71"/>
+      <c r="D52" s="54"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="21"/>
+      <c r="H52" s="114"/>
+      <c r="I52" s="115"/>
+      <c r="J52" s="118" t="s">
         <v>63</v>
       </c>
-      <c r="Q6" s="119"/>
-      <c r="R6" s="2"/>
-    </row>
-    <row r="7" spans="1:18" ht="15" customHeight="1">
-      <c r="A7" s="119">
-        <v>0.375</v>
-      </c>
-      <c r="B7" s="117"/>
-      <c r="C7" s="118"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="85"/>
-      <c r="F7" s="85"/>
-      <c r="G7" s="86"/>
-      <c r="H7" s="155"/>
-      <c r="I7" s="156"/>
-      <c r="J7" s="128"/>
-      <c r="K7" s="129"/>
-      <c r="L7" s="128"/>
-      <c r="M7" s="129"/>
-      <c r="N7" s="174" t="s">
-        <v>28</v>
-      </c>
-      <c r="O7" s="175" t="s">
-        <v>29</v>
-      </c>
-      <c r="P7" s="177"/>
-      <c r="Q7" s="119">
-        <v>0.375</v>
-      </c>
-      <c r="R7" s="2"/>
-    </row>
-    <row r="8" spans="1:18" ht="15" customHeight="1">
-      <c r="A8" s="119"/>
-      <c r="B8" s="117"/>
-      <c r="C8" s="118"/>
-      <c r="D8" s="84"/>
-      <c r="E8" s="85"/>
-      <c r="F8" s="85"/>
-      <c r="G8" s="86"/>
-      <c r="H8" s="155"/>
-      <c r="I8" s="156"/>
-      <c r="J8" s="128"/>
-      <c r="K8" s="129"/>
-      <c r="L8" s="128"/>
-      <c r="M8" s="129"/>
-      <c r="N8" s="174"/>
-      <c r="O8" s="175"/>
-      <c r="P8" s="177"/>
-      <c r="Q8" s="119"/>
-      <c r="R8" s="2"/>
-    </row>
-    <row r="9" spans="1:18" ht="15" customHeight="1">
-      <c r="A9" s="119">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="B9" s="117"/>
-      <c r="C9" s="118"/>
-      <c r="D9" s="84"/>
-      <c r="E9" s="85"/>
-      <c r="F9" s="85"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="155"/>
-      <c r="I9" s="156"/>
-      <c r="J9" s="128"/>
-      <c r="K9" s="129"/>
-      <c r="L9" s="128"/>
-      <c r="M9" s="129"/>
-      <c r="N9" s="174"/>
-      <c r="O9" s="175"/>
-      <c r="P9" s="177"/>
-      <c r="Q9" s="119">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="R9" s="2"/>
-    </row>
-    <row r="10" spans="1:18" ht="15" customHeight="1">
-      <c r="A10" s="119"/>
-      <c r="B10" s="117"/>
-      <c r="C10" s="118"/>
-      <c r="D10" s="84"/>
-      <c r="E10" s="85"/>
-      <c r="F10" s="85"/>
-      <c r="G10" s="86"/>
-      <c r="H10" s="155"/>
-      <c r="I10" s="156"/>
-      <c r="J10" s="128"/>
-      <c r="K10" s="129"/>
-      <c r="L10" s="128"/>
-      <c r="M10" s="129"/>
-      <c r="N10" s="174"/>
-      <c r="O10" s="175"/>
-      <c r="P10" s="177"/>
-      <c r="Q10" s="119"/>
-      <c r="R10" s="2"/>
-    </row>
-    <row r="11" spans="1:18" ht="15" customHeight="1">
-      <c r="A11" s="119">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="B11" s="117"/>
-      <c r="C11" s="118"/>
-      <c r="D11" s="84"/>
-      <c r="E11" s="85"/>
-      <c r="F11" s="85"/>
-      <c r="G11" s="86"/>
-      <c r="H11" s="87" t="s">
-        <v>56</v>
-      </c>
-      <c r="I11" s="88"/>
-      <c r="J11" s="95" t="s">
-        <v>48</v>
-      </c>
-      <c r="K11" s="96"/>
-      <c r="L11" s="159" t="s">
-        <v>48</v>
-      </c>
-      <c r="M11" s="160"/>
-      <c r="N11" s="174"/>
-      <c r="O11" s="175"/>
-      <c r="P11" s="177"/>
-      <c r="Q11" s="119">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="R11" s="2"/>
-    </row>
-    <row r="12" spans="1:18" ht="15" customHeight="1">
-      <c r="A12" s="119"/>
-      <c r="B12" s="117"/>
-      <c r="C12" s="118"/>
-      <c r="D12" s="84"/>
-      <c r="E12" s="85"/>
-      <c r="F12" s="85"/>
-      <c r="G12" s="86"/>
-      <c r="H12" s="97" t="s">
-        <v>4</v>
-      </c>
-      <c r="I12" s="98"/>
-      <c r="J12" s="97" t="s">
-        <v>4</v>
-      </c>
-      <c r="K12" s="98"/>
-      <c r="L12" s="97" t="s">
-        <v>4</v>
-      </c>
-      <c r="M12" s="98"/>
-      <c r="N12" s="174"/>
-      <c r="O12" s="175"/>
-      <c r="P12" s="177"/>
-      <c r="Q12" s="119"/>
-      <c r="R12" s="2"/>
-    </row>
-    <row r="13" spans="1:18" ht="15" customHeight="1">
-      <c r="A13" s="119">
-        <v>0.4375</v>
-      </c>
-      <c r="B13" s="117"/>
-      <c r="C13" s="118"/>
-      <c r="D13" s="84"/>
-      <c r="E13" s="85"/>
-      <c r="F13" s="85"/>
-      <c r="G13" s="86"/>
-      <c r="H13" s="99"/>
-      <c r="I13" s="100"/>
-      <c r="J13" s="99"/>
-      <c r="K13" s="100"/>
-      <c r="L13" s="99"/>
-      <c r="M13" s="100"/>
-      <c r="N13" s="174"/>
-      <c r="O13" s="175"/>
-      <c r="P13" s="177"/>
-      <c r="Q13" s="119">
-        <v>0.4375</v>
-      </c>
-      <c r="R13" s="2"/>
-    </row>
-    <row r="14" spans="1:18" ht="15" customHeight="1">
-      <c r="A14" s="119"/>
-      <c r="B14" s="117"/>
-      <c r="C14" s="118"/>
-      <c r="D14" s="84"/>
-      <c r="E14" s="85"/>
-      <c r="F14" s="85"/>
-      <c r="G14" s="86"/>
-      <c r="H14" s="101" t="s">
-        <v>49</v>
-      </c>
-      <c r="I14" s="102"/>
-      <c r="J14" s="101" t="s">
-        <v>49</v>
-      </c>
-      <c r="K14" s="102"/>
-      <c r="L14" s="101" t="s">
-        <v>49</v>
-      </c>
-      <c r="M14" s="102"/>
-      <c r="N14" s="174"/>
-      <c r="O14" s="175"/>
-      <c r="P14" s="177"/>
-      <c r="Q14" s="119"/>
-      <c r="R14" s="2"/>
-    </row>
-    <row r="15" spans="1:18" ht="15" customHeight="1">
-      <c r="A15" s="119">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="B15" s="117"/>
-      <c r="C15" s="118"/>
-      <c r="D15" s="84"/>
-      <c r="E15" s="85"/>
-      <c r="F15" s="85"/>
-      <c r="G15" s="86"/>
-      <c r="H15" s="70" t="s">
-        <v>60</v>
-      </c>
-      <c r="I15" s="71"/>
-      <c r="J15" s="70" t="s">
+      <c r="K52" s="119"/>
+      <c r="L52" s="9"/>
+      <c r="M52" s="109"/>
+      <c r="N52" s="110"/>
+      <c r="O52" s="110"/>
+      <c r="P52" s="111"/>
+      <c r="Q52" s="180">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="R52" s="2"/>
+    </row>
+    <row r="53" spans="1:18" ht="15" customHeight="1">
+      <c r="A53" s="182"/>
+      <c r="B53" s="70"/>
+      <c r="C53" s="71"/>
+      <c r="D53" s="191" t="s">
         <v>31</v>
       </c>
-      <c r="K15" s="71"/>
-      <c r="L15" s="70" t="s">
-        <v>11</v>
-      </c>
-      <c r="M15" s="71"/>
-      <c r="N15" s="174"/>
-      <c r="O15" s="175"/>
-      <c r="P15" s="177"/>
-      <c r="Q15" s="119">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="R15" s="2"/>
-    </row>
-    <row r="16" spans="1:18" ht="15" customHeight="1">
-      <c r="A16" s="119"/>
-      <c r="B16" s="117"/>
-      <c r="C16" s="118"/>
-      <c r="D16" s="84"/>
-      <c r="E16" s="85"/>
-      <c r="F16" s="85"/>
-      <c r="G16" s="86"/>
-      <c r="H16" s="70"/>
-      <c r="I16" s="71"/>
-      <c r="J16" s="70"/>
-      <c r="K16" s="71"/>
-      <c r="L16" s="70"/>
-      <c r="M16" s="71"/>
-      <c r="N16" s="174"/>
-      <c r="O16" s="175"/>
-      <c r="P16" s="177"/>
-      <c r="Q16" s="119"/>
-      <c r="R16" s="2"/>
-    </row>
-    <row r="17" spans="1:18" ht="15" customHeight="1">
-      <c r="A17" s="119">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="B17" s="117"/>
-      <c r="C17" s="118"/>
-      <c r="D17" s="84"/>
-      <c r="E17" s="85"/>
-      <c r="F17" s="85"/>
-      <c r="G17" s="86"/>
-      <c r="H17" s="70"/>
-      <c r="I17" s="71"/>
-      <c r="J17" s="70"/>
-      <c r="K17" s="71"/>
-      <c r="L17" s="70"/>
-      <c r="M17" s="71"/>
-      <c r="N17" s="174"/>
-      <c r="O17" s="175"/>
-      <c r="P17" s="177"/>
-      <c r="Q17" s="119">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="R17" s="2"/>
-    </row>
-    <row r="18" spans="1:18" ht="15" customHeight="1">
-      <c r="A18" s="119"/>
-      <c r="B18" s="117"/>
-      <c r="C18" s="118"/>
-      <c r="D18" s="84"/>
-      <c r="E18" s="85"/>
-      <c r="F18" s="85"/>
-      <c r="G18" s="50" t="s">
-        <v>8</v>
-      </c>
-      <c r="H18" s="70"/>
-      <c r="I18" s="71"/>
-      <c r="J18" s="70"/>
-      <c r="K18" s="71"/>
-      <c r="L18" s="70"/>
-      <c r="M18" s="71"/>
-      <c r="N18" s="174"/>
-      <c r="O18" s="175"/>
-      <c r="P18" s="50" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q18" s="119"/>
-      <c r="R18" s="2"/>
-    </row>
-    <row r="19" spans="1:18" ht="15" customHeight="1">
-      <c r="A19" s="119">
-        <v>0.5</v>
-      </c>
-      <c r="B19" s="117"/>
-      <c r="C19" s="118"/>
-      <c r="D19" s="84"/>
-      <c r="E19" s="85"/>
-      <c r="F19" s="85"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="68" t="s">
-        <v>59</v>
-      </c>
-      <c r="I19" s="69"/>
-      <c r="J19" s="68" t="s">
-        <v>59</v>
-      </c>
-      <c r="K19" s="69"/>
-      <c r="L19" s="68" t="s">
-        <v>59</v>
-      </c>
-      <c r="M19" s="69"/>
-      <c r="N19" s="174"/>
-      <c r="O19" s="175"/>
-      <c r="P19" s="178"/>
-      <c r="Q19" s="119">
-        <v>0.5</v>
-      </c>
-      <c r="R19" s="2"/>
-    </row>
-    <row r="20" spans="1:18" ht="15" customHeight="1">
-      <c r="A20" s="119"/>
-      <c r="B20" s="117"/>
-      <c r="C20" s="118"/>
-      <c r="D20" s="84"/>
-      <c r="E20" s="85"/>
-      <c r="F20" s="85"/>
-      <c r="G20" s="62"/>
-      <c r="H20" s="89" t="s">
-        <v>22</v>
-      </c>
-      <c r="I20" s="90"/>
-      <c r="J20" s="89" t="s">
-        <v>22</v>
-      </c>
-      <c r="K20" s="90"/>
-      <c r="L20" s="89" t="s">
-        <v>22</v>
-      </c>
-      <c r="M20" s="90"/>
-      <c r="N20" s="174"/>
-      <c r="O20" s="175"/>
-      <c r="P20" s="178"/>
-      <c r="Q20" s="119"/>
-      <c r="R20" s="2"/>
-    </row>
-    <row r="21" spans="1:18" ht="15" customHeight="1">
-      <c r="A21" s="119">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="B21" s="117"/>
-      <c r="C21" s="118"/>
-      <c r="D21" s="84"/>
-      <c r="E21" s="85"/>
-      <c r="F21" s="85"/>
-      <c r="G21" s="62"/>
-      <c r="H21" s="91"/>
-      <c r="I21" s="92"/>
-      <c r="J21" s="91"/>
-      <c r="K21" s="92"/>
-      <c r="L21" s="91"/>
-      <c r="M21" s="92"/>
-      <c r="N21" s="174"/>
-      <c r="O21" s="175"/>
-      <c r="P21" s="178"/>
-      <c r="Q21" s="119">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="R21" s="2"/>
-    </row>
-    <row r="22" spans="1:18" ht="15" customHeight="1">
-      <c r="A22" s="119"/>
-      <c r="B22" s="117"/>
-      <c r="C22" s="118"/>
-      <c r="D22" s="84"/>
-      <c r="E22" s="85"/>
-      <c r="F22" s="85"/>
-      <c r="G22" s="62"/>
-      <c r="H22" s="91"/>
-      <c r="I22" s="92"/>
-      <c r="J22" s="91"/>
-      <c r="K22" s="92"/>
-      <c r="L22" s="91"/>
-      <c r="M22" s="92"/>
-      <c r="N22" s="174"/>
-      <c r="O22" s="175"/>
-      <c r="P22" s="178"/>
-      <c r="Q22" s="119"/>
-      <c r="R22" s="2"/>
-    </row>
-    <row r="23" spans="1:18" ht="15" customHeight="1">
-      <c r="A23" s="119">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="B23" s="117"/>
-      <c r="C23" s="118"/>
-      <c r="D23" s="84"/>
-      <c r="E23" s="85"/>
-      <c r="F23" s="85"/>
-      <c r="G23" s="62"/>
-      <c r="H23" s="91"/>
-      <c r="I23" s="92"/>
-      <c r="J23" s="91"/>
-      <c r="K23" s="92"/>
-      <c r="L23" s="91"/>
-      <c r="M23" s="92"/>
-      <c r="N23" s="174"/>
-      <c r="O23" s="175"/>
-      <c r="P23" s="178"/>
-      <c r="Q23" s="119">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="R23" s="2"/>
-    </row>
-    <row r="24" spans="1:18" ht="15" customHeight="1">
-      <c r="A24" s="119"/>
-      <c r="B24" s="117"/>
-      <c r="C24" s="118"/>
-      <c r="D24" s="84"/>
-      <c r="E24" s="85"/>
-      <c r="F24" s="85"/>
-      <c r="G24" s="63"/>
-      <c r="H24" s="93"/>
-      <c r="I24" s="94"/>
-      <c r="J24" s="93"/>
-      <c r="K24" s="94"/>
-      <c r="L24" s="93"/>
-      <c r="M24" s="94"/>
-      <c r="N24" s="174"/>
-      <c r="O24" s="175"/>
-      <c r="P24" s="178"/>
-      <c r="Q24" s="119"/>
-      <c r="R24" s="2"/>
-    </row>
-    <row r="25" spans="1:18" ht="15" customHeight="1">
-      <c r="A25" s="119">
-        <v>0.5625</v>
-      </c>
-      <c r="B25" s="117"/>
-      <c r="C25" s="118"/>
-      <c r="D25" s="84"/>
-      <c r="E25" s="85"/>
-      <c r="F25" s="85"/>
-      <c r="G25" s="60" t="s">
-        <v>57</v>
-      </c>
-      <c r="H25" s="145" t="s">
-        <v>57</v>
-      </c>
-      <c r="I25" s="146"/>
-      <c r="J25" s="145" t="s">
-        <v>57</v>
-      </c>
-      <c r="K25" s="146"/>
-      <c r="L25" s="145" t="s">
-        <v>57</v>
-      </c>
-      <c r="M25" s="146"/>
-      <c r="N25" s="174"/>
-      <c r="O25" s="175"/>
-      <c r="P25" s="178"/>
-      <c r="Q25" s="119">
-        <v>0.5625</v>
-      </c>
-      <c r="R25" s="2"/>
-    </row>
-    <row r="26" spans="1:18" ht="15" customHeight="1">
-      <c r="A26" s="119"/>
-      <c r="B26" s="117"/>
-      <c r="C26" s="118"/>
-      <c r="D26" s="84"/>
-      <c r="E26" s="85"/>
-      <c r="F26" s="85"/>
-      <c r="G26" s="109" t="s">
-        <v>71</v>
-      </c>
-      <c r="H26" s="203" t="s">
-        <v>44</v>
-      </c>
-      <c r="I26" s="129"/>
-      <c r="J26" s="128" t="s">
-        <v>73</v>
-      </c>
-      <c r="K26" s="129"/>
-      <c r="L26" s="128" t="s">
-        <v>75</v>
-      </c>
-      <c r="M26" s="129"/>
-      <c r="N26" s="174"/>
-      <c r="O26" s="175"/>
-      <c r="P26" s="189"/>
-      <c r="Q26" s="119"/>
-      <c r="R26" s="2"/>
-    </row>
-    <row r="27" spans="1:18" ht="15" customHeight="1">
-      <c r="A27" s="119">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="B27" s="117"/>
-      <c r="C27" s="118"/>
-      <c r="D27" s="84"/>
-      <c r="E27" s="85"/>
-      <c r="F27" s="85"/>
-      <c r="G27" s="109"/>
-      <c r="H27" s="203"/>
-      <c r="I27" s="129"/>
-      <c r="J27" s="128"/>
-      <c r="K27" s="129"/>
-      <c r="L27" s="128"/>
-      <c r="M27" s="129"/>
-      <c r="N27" s="174"/>
-      <c r="O27" s="175"/>
-      <c r="P27" s="189"/>
-      <c r="Q27" s="119">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="R27" s="2"/>
-    </row>
-    <row r="28" spans="1:18" ht="15" customHeight="1">
-      <c r="A28" s="119"/>
-      <c r="B28" s="117"/>
-      <c r="C28" s="118"/>
-      <c r="D28" s="84"/>
-      <c r="E28" s="85"/>
-      <c r="F28" s="85"/>
-      <c r="G28" s="109"/>
-      <c r="H28" s="203"/>
-      <c r="I28" s="129"/>
-      <c r="J28" s="128"/>
-      <c r="K28" s="129"/>
-      <c r="L28" s="128"/>
-      <c r="M28" s="129"/>
-      <c r="N28" s="174"/>
-      <c r="O28" s="175"/>
-      <c r="P28" s="189"/>
-      <c r="Q28" s="119"/>
-      <c r="R28" s="2"/>
-    </row>
-    <row r="29" spans="1:18" ht="15" customHeight="1">
-      <c r="A29" s="119">
-        <v>0.60416666666666663</v>
-      </c>
-      <c r="B29" s="117"/>
-      <c r="C29" s="118"/>
-      <c r="D29" s="84"/>
-      <c r="E29" s="85"/>
-      <c r="F29" s="85"/>
-      <c r="G29" s="109"/>
-      <c r="H29" s="203"/>
-      <c r="I29" s="129"/>
-      <c r="J29" s="128"/>
-      <c r="K29" s="129"/>
-      <c r="L29" s="128"/>
-      <c r="M29" s="129"/>
-      <c r="N29" s="174"/>
-      <c r="O29" s="175"/>
-      <c r="P29" s="189"/>
-      <c r="Q29" s="119">
-        <v>0.60416666666666663</v>
-      </c>
-      <c r="R29" s="2"/>
-    </row>
-    <row r="30" spans="1:18" ht="15" customHeight="1">
-      <c r="A30" s="119"/>
-      <c r="B30" s="117"/>
-      <c r="C30" s="118"/>
-      <c r="D30" s="84"/>
-      <c r="E30" s="85"/>
-      <c r="F30" s="85"/>
-      <c r="G30" s="109"/>
-      <c r="H30" s="203"/>
-      <c r="I30" s="129"/>
-      <c r="J30" s="128"/>
-      <c r="K30" s="129"/>
-      <c r="L30" s="128"/>
-      <c r="M30" s="129"/>
-      <c r="N30" s="174"/>
-      <c r="O30" s="175"/>
-      <c r="P30" s="189"/>
-      <c r="Q30" s="119"/>
-      <c r="R30" s="2"/>
-    </row>
-    <row r="31" spans="1:18" ht="15" customHeight="1">
-      <c r="A31" s="119">
-        <v>0.625</v>
-      </c>
-      <c r="B31" s="117"/>
-      <c r="C31" s="118"/>
-      <c r="D31" s="84"/>
-      <c r="E31" s="85"/>
-      <c r="F31" s="85"/>
-      <c r="G31" s="109"/>
-      <c r="H31" s="203"/>
-      <c r="I31" s="129"/>
-      <c r="J31" s="128"/>
-      <c r="K31" s="129"/>
-      <c r="L31" s="128"/>
-      <c r="M31" s="129"/>
-      <c r="N31" s="174"/>
-      <c r="O31" s="175"/>
-      <c r="P31" s="189"/>
-      <c r="Q31" s="119">
-        <v>0.625</v>
-      </c>
-      <c r="R31" s="2"/>
-    </row>
-    <row r="32" spans="1:18" ht="15" customHeight="1">
-      <c r="A32" s="119"/>
-      <c r="B32" s="117"/>
-      <c r="C32" s="118"/>
-      <c r="D32" s="84"/>
-      <c r="E32" s="85"/>
-      <c r="F32" s="85"/>
-      <c r="G32" s="109"/>
-      <c r="H32" s="203"/>
-      <c r="I32" s="129"/>
-      <c r="J32" s="128"/>
-      <c r="K32" s="129"/>
-      <c r="L32" s="128"/>
-      <c r="M32" s="129"/>
-      <c r="N32" s="174"/>
-      <c r="O32" s="175"/>
-      <c r="P32" s="189"/>
-      <c r="Q32" s="119"/>
-      <c r="R32" s="2"/>
-    </row>
-    <row r="33" spans="1:18" ht="15" customHeight="1">
-      <c r="A33" s="119">
-        <v>0.64583333333333337</v>
-      </c>
-      <c r="B33" s="117"/>
-      <c r="C33" s="118"/>
-      <c r="D33" s="84"/>
-      <c r="E33" s="85"/>
-      <c r="F33" s="85"/>
-      <c r="G33" s="109"/>
-      <c r="H33" s="202" t="s">
-        <v>58</v>
-      </c>
-      <c r="I33" s="180"/>
-      <c r="J33" s="179" t="s">
-        <v>58</v>
-      </c>
-      <c r="K33" s="180"/>
-      <c r="L33" s="179" t="s">
-        <v>58</v>
-      </c>
-      <c r="M33" s="180"/>
-      <c r="N33" s="174"/>
-      <c r="O33" s="175"/>
-      <c r="P33" s="178"/>
-      <c r="Q33" s="119">
-        <v>0.64583333333333337</v>
-      </c>
-      <c r="R33" s="2"/>
-    </row>
-    <row r="34" spans="1:18" ht="15" customHeight="1">
-      <c r="A34" s="119"/>
-      <c r="B34" s="117"/>
-      <c r="C34" s="118"/>
-      <c r="D34" s="84"/>
-      <c r="E34" s="85"/>
-      <c r="F34" s="85"/>
-      <c r="G34" s="109"/>
-      <c r="H34" s="207" t="s">
-        <v>43</v>
-      </c>
-      <c r="I34" s="182"/>
-      <c r="J34" s="181" t="s">
-        <v>43</v>
-      </c>
-      <c r="K34" s="182"/>
-      <c r="L34" s="181" t="s">
-        <v>43</v>
-      </c>
-      <c r="M34" s="182"/>
-      <c r="N34" s="174"/>
-      <c r="O34" s="175"/>
-      <c r="P34" s="178"/>
-      <c r="Q34" s="119"/>
-      <c r="R34" s="2"/>
-    </row>
-    <row r="35" spans="1:18" ht="15" customHeight="1">
-      <c r="A35" s="119">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="B35" s="117"/>
-      <c r="C35" s="118"/>
-      <c r="D35" s="84"/>
-      <c r="E35" s="85"/>
-      <c r="F35" s="85"/>
-      <c r="G35" s="109"/>
-      <c r="H35" s="208"/>
-      <c r="I35" s="184"/>
-      <c r="J35" s="183"/>
-      <c r="K35" s="184"/>
-      <c r="L35" s="183"/>
-      <c r="M35" s="184"/>
-      <c r="N35" s="174"/>
-      <c r="O35" s="175"/>
-      <c r="P35" s="178"/>
-      <c r="Q35" s="119">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="R35" s="2"/>
-    </row>
-    <row r="36" spans="1:18" ht="15" customHeight="1">
-      <c r="A36" s="119"/>
-      <c r="B36" s="117"/>
-      <c r="C36" s="118"/>
-      <c r="D36" s="84"/>
-      <c r="E36" s="85"/>
-      <c r="F36" s="85"/>
-      <c r="G36" s="109"/>
-      <c r="H36" s="209"/>
-      <c r="I36" s="186"/>
-      <c r="J36" s="185"/>
-      <c r="K36" s="186"/>
-      <c r="L36" s="185"/>
-      <c r="M36" s="186"/>
-      <c r="N36" s="174"/>
-      <c r="O36" s="175"/>
-      <c r="P36" s="178"/>
-      <c r="Q36" s="119"/>
-      <c r="R36" s="2"/>
-    </row>
-    <row r="37" spans="1:18" ht="15" customHeight="1">
-      <c r="A37" s="119">
-        <v>0.6875</v>
-      </c>
-      <c r="B37" s="117"/>
-      <c r="C37" s="118"/>
-      <c r="D37" s="84"/>
-      <c r="E37" s="85"/>
-      <c r="F37" s="85"/>
-      <c r="G37" s="109"/>
-      <c r="H37" s="187" t="s">
-        <v>61</v>
-      </c>
-      <c r="I37" s="188"/>
-      <c r="J37" s="205" t="s">
-        <v>61</v>
-      </c>
-      <c r="K37" s="188"/>
-      <c r="L37" s="205" t="s">
-        <v>61</v>
-      </c>
-      <c r="M37" s="188"/>
-      <c r="N37" s="174"/>
-      <c r="O37" s="175"/>
-      <c r="P37" s="178"/>
-      <c r="Q37" s="119">
-        <v>0.6875</v>
-      </c>
-      <c r="R37" s="2"/>
-    </row>
-    <row r="38" spans="1:18" ht="15" customHeight="1">
-      <c r="A38" s="119"/>
-      <c r="B38" s="117"/>
-      <c r="C38" s="118"/>
-      <c r="D38" s="84"/>
-      <c r="E38" s="85"/>
-      <c r="F38" s="85"/>
-      <c r="G38" s="109"/>
-      <c r="H38" s="206" t="s">
-        <v>10</v>
-      </c>
-      <c r="I38" s="71"/>
-      <c r="J38" s="200" t="s">
-        <v>74</v>
-      </c>
-      <c r="K38" s="201"/>
-      <c r="L38" s="200" t="s">
-        <v>76</v>
-      </c>
-      <c r="M38" s="201"/>
-      <c r="N38" s="174"/>
-      <c r="O38" s="175"/>
-      <c r="P38" s="178"/>
-      <c r="Q38" s="119"/>
-      <c r="R38" s="2"/>
-    </row>
-    <row r="39" spans="1:18" ht="15" customHeight="1">
-      <c r="A39" s="119">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="B39" s="117"/>
-      <c r="C39" s="118"/>
-      <c r="D39" s="84"/>
-      <c r="E39" s="85"/>
-      <c r="F39" s="85"/>
-      <c r="G39" s="109"/>
-      <c r="H39" s="206"/>
-      <c r="I39" s="71"/>
-      <c r="J39" s="200"/>
-      <c r="K39" s="201"/>
-      <c r="L39" s="200"/>
-      <c r="M39" s="201"/>
-      <c r="N39" s="174"/>
-      <c r="O39" s="175"/>
-      <c r="P39" s="178"/>
-      <c r="Q39" s="119">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="R39" s="2"/>
-    </row>
-    <row r="40" spans="1:18" ht="15" customHeight="1">
-      <c r="A40" s="119"/>
-      <c r="B40" s="117"/>
-      <c r="C40" s="118"/>
-      <c r="D40" s="84"/>
-      <c r="E40" s="85"/>
-      <c r="F40" s="85"/>
-      <c r="G40" s="109"/>
-      <c r="H40" s="206"/>
-      <c r="I40" s="71"/>
-      <c r="J40" s="200"/>
-      <c r="K40" s="201"/>
-      <c r="L40" s="200"/>
-      <c r="M40" s="201"/>
-      <c r="N40" s="174"/>
-      <c r="O40" s="175"/>
-      <c r="P40" s="178"/>
-      <c r="Q40" s="119"/>
-      <c r="R40" s="2"/>
-    </row>
-    <row r="41" spans="1:18" ht="15" customHeight="1">
-      <c r="A41" s="119">
-        <v>0.72916666666666663</v>
-      </c>
-      <c r="B41" s="48"/>
-      <c r="C41" s="49"/>
-      <c r="D41" s="84"/>
-      <c r="E41" s="85"/>
-      <c r="F41" s="85"/>
-      <c r="G41" s="109"/>
-      <c r="H41" s="206"/>
-      <c r="I41" s="71"/>
-      <c r="J41" s="200"/>
-      <c r="K41" s="201"/>
-      <c r="L41" s="200"/>
-      <c r="M41" s="201"/>
-      <c r="N41" s="174"/>
-      <c r="O41" s="175"/>
-      <c r="P41" s="178"/>
-      <c r="Q41" s="119">
-        <v>0.72916666666666663</v>
-      </c>
-      <c r="R41" s="2"/>
-    </row>
-    <row r="42" spans="1:18" ht="15" customHeight="1">
-      <c r="A42" s="119"/>
-      <c r="B42" s="110" t="s">
-        <v>6</v>
-      </c>
-      <c r="C42" s="111"/>
-      <c r="D42" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E42" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="F42" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="G42" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="H42" s="206"/>
-      <c r="I42" s="71"/>
-      <c r="J42" s="196" t="s">
-        <v>64</v>
-      </c>
-      <c r="K42" s="197"/>
-      <c r="L42" s="198" t="s">
-        <v>64</v>
-      </c>
-      <c r="M42" s="199"/>
-      <c r="N42" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="O42" s="59" t="s">
-        <v>6</v>
-      </c>
-      <c r="P42" s="178"/>
-      <c r="Q42" s="119"/>
-      <c r="R42" s="2"/>
-    </row>
-    <row r="43" spans="1:18" ht="15" customHeight="1">
-      <c r="A43" s="119">
-        <v>0.75</v>
-      </c>
-      <c r="B43" s="4"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="112"/>
-      <c r="E43" s="113"/>
-      <c r="F43" s="113"/>
-      <c r="G43" s="114"/>
-      <c r="H43" s="204" t="s">
-        <v>62</v>
-      </c>
-      <c r="I43" s="197"/>
-      <c r="J43" s="103" t="s">
-        <v>35</v>
-      </c>
-      <c r="K43" s="104"/>
-      <c r="L43" s="190" t="s">
-        <v>39</v>
-      </c>
-      <c r="M43" s="191"/>
-      <c r="N43" s="30"/>
-      <c r="O43" s="30"/>
-      <c r="P43" s="178"/>
-      <c r="Q43" s="119">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" ht="15" customHeight="1">
-      <c r="A44" s="119"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="78"/>
-      <c r="E44" s="79"/>
-      <c r="F44" s="79"/>
-      <c r="G44" s="80"/>
-      <c r="H44" s="51"/>
-      <c r="I44" s="52"/>
-      <c r="J44" s="105"/>
-      <c r="K44" s="106"/>
-      <c r="L44" s="192"/>
-      <c r="M44" s="193"/>
-      <c r="N44" s="30"/>
-      <c r="O44" s="30"/>
-      <c r="P44" s="178"/>
-      <c r="Q44" s="119"/>
-    </row>
-    <row r="45" spans="1:18" ht="15" customHeight="1">
-      <c r="A45" s="119">
-        <v>0.77083333333333337</v>
-      </c>
-      <c r="B45" s="4"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="81" t="s">
-        <v>7</v>
-      </c>
-      <c r="E45" s="82"/>
-      <c r="F45" s="82"/>
-      <c r="G45" s="83"/>
-      <c r="H45" s="53"/>
-      <c r="I45" s="54"/>
-      <c r="J45" s="105"/>
-      <c r="K45" s="106"/>
-      <c r="L45" s="192"/>
-      <c r="M45" s="193"/>
-      <c r="N45" s="30"/>
-      <c r="O45" s="30"/>
-      <c r="P45" s="178"/>
-      <c r="Q45" s="119">
-        <v>0.77083333333333337</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" ht="15" customHeight="1">
-      <c r="A46" s="119"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="75" t="s">
-        <v>80</v>
-      </c>
-      <c r="E46" s="76"/>
-      <c r="F46" s="76"/>
-      <c r="G46" s="77"/>
-      <c r="H46" s="53"/>
-      <c r="I46" s="54"/>
-      <c r="J46" s="105"/>
-      <c r="K46" s="106"/>
-      <c r="L46" s="192"/>
-      <c r="M46" s="193"/>
-      <c r="N46" s="30"/>
-      <c r="O46" s="30"/>
-      <c r="P46" s="178"/>
-      <c r="Q46" s="119"/>
-      <c r="R46" s="2"/>
-    </row>
-    <row r="47" spans="1:18" ht="15" customHeight="1">
-      <c r="A47" s="119">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="B47" s="4"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="75"/>
-      <c r="E47" s="76"/>
-      <c r="F47" s="76"/>
-      <c r="G47" s="77"/>
-      <c r="H47" s="53"/>
-      <c r="I47" s="54"/>
-      <c r="J47" s="107"/>
-      <c r="K47" s="108"/>
-      <c r="L47" s="194"/>
-      <c r="M47" s="195"/>
-      <c r="N47" s="30"/>
-      <c r="O47" s="30"/>
-      <c r="P47" s="31"/>
-      <c r="Q47" s="119">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="R47" s="2"/>
-    </row>
-    <row r="48" spans="1:18" ht="15" customHeight="1">
-      <c r="A48" s="119"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="75"/>
-      <c r="E48" s="76"/>
-      <c r="F48" s="76"/>
-      <c r="G48" s="77"/>
-      <c r="H48" s="55"/>
-      <c r="I48" s="56"/>
-      <c r="J48" s="37"/>
-      <c r="K48" s="38"/>
-      <c r="L48" s="10"/>
-      <c r="M48" s="30"/>
-      <c r="N48" s="30"/>
-      <c r="O48" s="30"/>
-      <c r="P48" s="31"/>
-      <c r="Q48" s="119"/>
-      <c r="R48" s="2"/>
-    </row>
-    <row r="49" spans="1:18" ht="15" customHeight="1">
-      <c r="A49" s="120">
-        <v>0.8125</v>
-      </c>
-      <c r="B49" s="4"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="75"/>
-      <c r="E49" s="76"/>
-      <c r="F49" s="76"/>
-      <c r="G49" s="77"/>
-      <c r="H49" s="172" t="s">
-        <v>9</v>
-      </c>
-      <c r="I49" s="173"/>
-      <c r="J49" s="39"/>
-      <c r="K49" s="40"/>
-      <c r="L49" s="10"/>
-      <c r="M49" s="30"/>
-      <c r="N49" s="30"/>
-      <c r="O49" s="30"/>
-      <c r="P49" s="31"/>
-      <c r="Q49" s="120">
-        <v>0.8125</v>
-      </c>
-      <c r="R49" s="2"/>
-    </row>
-    <row r="50" spans="1:18" ht="15" customHeight="1">
-      <c r="A50" s="120"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="75"/>
-      <c r="E50" s="76"/>
-      <c r="F50" s="76"/>
-      <c r="G50" s="77"/>
-      <c r="H50" s="166" t="s">
-        <v>23</v>
-      </c>
-      <c r="I50" s="167"/>
-      <c r="J50" s="66" t="s">
-        <v>47</v>
-      </c>
-      <c r="K50" s="67"/>
-      <c r="L50" s="10"/>
-      <c r="M50" s="30"/>
-      <c r="N50" s="30"/>
-      <c r="O50" s="30"/>
-      <c r="P50" s="31"/>
-      <c r="Q50" s="120"/>
-      <c r="R50" s="2"/>
-    </row>
-    <row r="51" spans="1:18" ht="15" customHeight="1">
-      <c r="A51" s="120">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="B51" s="4"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="28"/>
-      <c r="E51" s="11"/>
-      <c r="F51" s="11"/>
-      <c r="G51" s="29"/>
-      <c r="H51" s="166"/>
-      <c r="I51" s="167"/>
-      <c r="J51" s="170" t="s">
-        <v>70</v>
-      </c>
-      <c r="K51" s="171"/>
-      <c r="L51" s="10"/>
-      <c r="M51" s="161" t="s">
-        <v>77</v>
-      </c>
-      <c r="N51" s="162"/>
-      <c r="O51" s="162"/>
-      <c r="P51" s="163"/>
-      <c r="Q51" s="120">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="R51" s="2"/>
-    </row>
-    <row r="52" spans="1:18" ht="15" customHeight="1">
-      <c r="A52" s="120"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="72" t="s">
-        <v>34</v>
-      </c>
-      <c r="E52" s="73"/>
-      <c r="F52" s="73"/>
-      <c r="G52" s="74"/>
-      <c r="H52" s="166"/>
-      <c r="I52" s="167"/>
-      <c r="J52" s="170"/>
-      <c r="K52" s="171"/>
-      <c r="L52" s="10"/>
-      <c r="M52" s="162"/>
-      <c r="N52" s="162"/>
-      <c r="O52" s="162"/>
-      <c r="P52" s="163"/>
-      <c r="Q52" s="120"/>
-      <c r="R52" s="2"/>
-    </row>
-    <row r="53" spans="1:18" ht="15" customHeight="1">
-      <c r="A53" s="120">
+      <c r="E53" s="191"/>
+      <c r="F53" s="191"/>
+      <c r="G53" s="192"/>
+      <c r="H53" s="114"/>
+      <c r="I53" s="115"/>
+      <c r="J53" s="118"/>
+      <c r="K53" s="119"/>
+      <c r="L53" s="9"/>
+      <c r="M53" s="110"/>
+      <c r="N53" s="110"/>
+      <c r="O53" s="110"/>
+      <c r="P53" s="111"/>
+      <c r="Q53" s="180"/>
+      <c r="R53" s="2"/>
+    </row>
+    <row r="54" spans="1:18" ht="15" customHeight="1">
+      <c r="A54" s="182">
         <v>0.85416666666666663</v>
       </c>
-      <c r="B53" s="4"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="25"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="22"/>
-      <c r="H53" s="166"/>
-      <c r="I53" s="167"/>
-      <c r="J53" s="170"/>
-      <c r="K53" s="171"/>
-      <c r="L53" s="10"/>
-      <c r="M53" s="164" t="s">
-        <v>78</v>
-      </c>
-      <c r="N53" s="164"/>
-      <c r="O53" s="164"/>
-      <c r="P53" s="165"/>
-      <c r="Q53" s="120">
-        <v>0.85416666666666663</v>
-      </c>
-      <c r="R53" s="2"/>
-    </row>
-    <row r="54" spans="1:18" ht="15" customHeight="1">
-      <c r="A54" s="120"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="25"/>
+      <c r="B54" s="70"/>
+      <c r="C54" s="71"/>
+      <c r="D54" s="3"/>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
-      <c r="G54" s="23"/>
-      <c r="H54" s="166"/>
-      <c r="I54" s="167"/>
-      <c r="J54" s="170"/>
-      <c r="K54" s="171"/>
-      <c r="L54" s="10"/>
-      <c r="M54" s="164"/>
-      <c r="N54" s="164"/>
-      <c r="O54" s="164"/>
-      <c r="P54" s="165"/>
-      <c r="Q54" s="120"/>
+      <c r="G54" s="17"/>
+      <c r="H54" s="114"/>
+      <c r="I54" s="115"/>
+      <c r="J54" s="118"/>
+      <c r="K54" s="119"/>
+      <c r="L54" s="9"/>
+      <c r="M54" s="112"/>
+      <c r="N54" s="112"/>
+      <c r="O54" s="112"/>
+      <c r="P54" s="113"/>
+      <c r="Q54" s="180">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="R54" s="2"/>
     </row>
     <row r="55" spans="1:18" ht="15" customHeight="1">
-      <c r="A55" s="115">
-        <v>0.875</v>
-      </c>
-      <c r="B55" s="20"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="25"/>
+      <c r="A55" s="182"/>
+      <c r="B55" s="70"/>
+      <c r="C55" s="71"/>
+      <c r="D55" s="3"/>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
-      <c r="G55" s="23"/>
-      <c r="H55" s="166"/>
-      <c r="I55" s="167"/>
-      <c r="J55" s="170"/>
-      <c r="K55" s="171"/>
-      <c r="L55" s="10"/>
-      <c r="M55" s="164"/>
-      <c r="N55" s="164"/>
-      <c r="O55" s="164"/>
-      <c r="P55" s="165"/>
-      <c r="Q55" s="120">
+      <c r="G55" s="18"/>
+      <c r="H55" s="114"/>
+      <c r="I55" s="115"/>
+      <c r="J55" s="118"/>
+      <c r="K55" s="119"/>
+      <c r="L55" s="9"/>
+      <c r="M55" s="112"/>
+      <c r="N55" s="112"/>
+      <c r="O55" s="112"/>
+      <c r="P55" s="113"/>
+      <c r="Q55" s="180"/>
+    </row>
+    <row r="56" spans="1:18" ht="15" customHeight="1">
+      <c r="A56" s="182">
         <v>0.875</v>
       </c>
-    </row>
-    <row r="56" spans="1:18" ht="15" customHeight="1">
-      <c r="A56" s="115"/>
-      <c r="B56" s="20"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="25"/>
+      <c r="B56" s="70"/>
+      <c r="C56" s="71"/>
+      <c r="D56" s="3"/>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
-      <c r="G56" s="23"/>
-      <c r="H56" s="166"/>
-      <c r="I56" s="167"/>
-      <c r="J56" s="170"/>
-      <c r="K56" s="171"/>
-      <c r="L56" s="10"/>
-      <c r="M56" s="164" t="s">
-        <v>79</v>
-      </c>
-      <c r="N56" s="164"/>
-      <c r="O56" s="164"/>
-      <c r="P56" s="165"/>
-      <c r="Q56" s="120"/>
+      <c r="G56" s="18"/>
+      <c r="H56" s="114"/>
+      <c r="I56" s="115"/>
+      <c r="J56" s="118"/>
+      <c r="K56" s="119"/>
+      <c r="L56" s="9"/>
+      <c r="M56" s="112"/>
+      <c r="N56" s="112"/>
+      <c r="O56" s="112"/>
+      <c r="P56" s="113"/>
+      <c r="Q56" s="180">
+        <v>0.875</v>
+      </c>
     </row>
     <row r="57" spans="1:18" ht="15" customHeight="1">
-      <c r="A57" s="115">
-        <v>0.89583333333333337</v>
-      </c>
-      <c r="B57" s="20"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="25"/>
+      <c r="A57" s="182"/>
+      <c r="B57" s="70"/>
+      <c r="C57" s="71"/>
+      <c r="D57" s="3"/>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
-      <c r="G57" s="23"/>
-      <c r="H57" s="166"/>
-      <c r="I57" s="167"/>
-      <c r="J57" s="170"/>
-      <c r="K57" s="171"/>
-      <c r="L57" s="10"/>
-      <c r="M57" s="164"/>
-      <c r="N57" s="164"/>
-      <c r="O57" s="164"/>
-      <c r="P57" s="165"/>
-      <c r="Q57" s="120">
+      <c r="G57" s="18"/>
+      <c r="H57" s="114"/>
+      <c r="I57" s="115"/>
+      <c r="J57" s="118"/>
+      <c r="K57" s="119"/>
+      <c r="L57" s="9"/>
+      <c r="M57" s="112"/>
+      <c r="N57" s="112"/>
+      <c r="O57" s="112"/>
+      <c r="P57" s="113"/>
+      <c r="Q57" s="180"/>
+    </row>
+    <row r="58" spans="1:18" ht="15" customHeight="1">
+      <c r="A58" s="182">
         <v>0.89583333333333337</v>
       </c>
-    </row>
-    <row r="58" spans="1:18" ht="15" customHeight="1">
-      <c r="A58" s="115"/>
-      <c r="B58" s="20"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="25"/>
+      <c r="B58" s="70"/>
+      <c r="C58" s="71"/>
+      <c r="D58" s="3"/>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
-      <c r="G58" s="23"/>
-      <c r="H58" s="166"/>
-      <c r="I58" s="167"/>
-      <c r="J58" s="170"/>
-      <c r="K58" s="171"/>
-      <c r="L58" s="34"/>
-      <c r="M58" s="164"/>
-      <c r="N58" s="164"/>
-      <c r="O58" s="164"/>
-      <c r="P58" s="165"/>
-      <c r="Q58" s="120"/>
+      <c r="G58" s="18"/>
+      <c r="H58" s="114"/>
+      <c r="I58" s="115"/>
+      <c r="J58" s="118"/>
+      <c r="K58" s="119"/>
+      <c r="L58" s="9"/>
+      <c r="M58" s="112"/>
+      <c r="N58" s="112"/>
+      <c r="O58" s="112"/>
+      <c r="P58" s="113"/>
+      <c r="Q58" s="180">
+        <v>0.89583333333333337</v>
+      </c>
     </row>
     <row r="59" spans="1:18" ht="15" customHeight="1">
-      <c r="A59" s="115">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="B59" s="20"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="25"/>
+      <c r="A59" s="182"/>
+      <c r="B59" s="70"/>
+      <c r="C59" s="71"/>
+      <c r="D59" s="3"/>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
-      <c r="G59" s="23"/>
-      <c r="H59" s="166"/>
-      <c r="I59" s="167"/>
-      <c r="J59" s="170"/>
-      <c r="K59" s="171"/>
-      <c r="L59" s="10"/>
-      <c r="M59" s="30"/>
-      <c r="N59" s="30"/>
-      <c r="O59" s="30"/>
-      <c r="P59" s="31"/>
-      <c r="Q59" s="120">
+      <c r="G59" s="18"/>
+      <c r="H59" s="114"/>
+      <c r="I59" s="115"/>
+      <c r="J59" s="118"/>
+      <c r="K59" s="119"/>
+      <c r="L59" s="26"/>
+      <c r="M59" s="112"/>
+      <c r="N59" s="112"/>
+      <c r="O59" s="112"/>
+      <c r="P59" s="113"/>
+      <c r="Q59" s="180"/>
+    </row>
+    <row r="60" spans="1:18" ht="15" customHeight="1">
+      <c r="A60" s="182">
         <v>0.91666666666666663</v>
       </c>
-    </row>
-    <row r="60" spans="1:18" ht="15" customHeight="1">
-      <c r="A60" s="115"/>
-      <c r="B60" s="20"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="25"/>
+      <c r="B60" s="70"/>
+      <c r="C60" s="71"/>
+      <c r="D60" s="3"/>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
-      <c r="G60" s="23"/>
-      <c r="H60" s="166"/>
-      <c r="I60" s="167"/>
-      <c r="J60" s="168" t="s">
-        <v>37</v>
-      </c>
-      <c r="K60" s="169"/>
-      <c r="L60" s="10"/>
-      <c r="M60" s="30"/>
-      <c r="N60" s="30"/>
-      <c r="O60" s="30"/>
-      <c r="P60" s="31"/>
-      <c r="Q60" s="120"/>
+      <c r="G60" s="18"/>
+      <c r="H60" s="114"/>
+      <c r="I60" s="115"/>
+      <c r="J60" s="118"/>
+      <c r="K60" s="119"/>
+      <c r="L60" s="9"/>
+      <c r="M60" s="22"/>
+      <c r="N60" s="22"/>
+      <c r="O60" s="22"/>
+      <c r="P60" s="23"/>
+      <c r="Q60" s="180">
+        <v>0.91666666666666663</v>
+      </c>
     </row>
     <row r="61" spans="1:18" ht="15" customHeight="1">
-      <c r="A61" s="115">
-        <v>0.9375</v>
-      </c>
-      <c r="B61" s="20"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="25"/>
+      <c r="A61" s="182"/>
+      <c r="B61" s="70"/>
+      <c r="C61" s="71"/>
+      <c r="D61" s="3"/>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
-      <c r="G61" s="23"/>
-      <c r="H61" s="166"/>
-      <c r="I61" s="167"/>
-      <c r="J61" s="30"/>
-      <c r="K61" s="30"/>
-      <c r="L61" s="10"/>
-      <c r="M61" s="30"/>
-      <c r="N61" s="30"/>
-      <c r="O61" s="30"/>
-      <c r="P61" s="31"/>
-      <c r="Q61" s="120">
+      <c r="G61" s="18"/>
+      <c r="H61" s="114"/>
+      <c r="I61" s="115"/>
+      <c r="J61" s="116" t="s">
+        <v>34</v>
+      </c>
+      <c r="K61" s="117"/>
+      <c r="L61" s="9"/>
+      <c r="M61" s="22"/>
+      <c r="N61" s="22"/>
+      <c r="O61" s="22"/>
+      <c r="P61" s="23"/>
+      <c r="Q61" s="180"/>
+    </row>
+    <row r="62" spans="1:18" ht="15" customHeight="1">
+      <c r="A62" s="182">
         <v>0.9375</v>
       </c>
-    </row>
-    <row r="62" spans="1:18" ht="15" customHeight="1">
-      <c r="A62" s="115"/>
-      <c r="B62" s="20"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="25"/>
+      <c r="B62" s="70"/>
+      <c r="C62" s="71"/>
+      <c r="D62" s="3"/>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
-      <c r="G62" s="23"/>
-      <c r="H62" s="166"/>
-      <c r="I62" s="167"/>
-      <c r="J62" s="30"/>
-      <c r="K62" s="30"/>
-      <c r="L62" s="10"/>
-      <c r="M62" s="30"/>
-      <c r="N62" s="30"/>
-      <c r="O62" s="30"/>
-      <c r="P62" s="31"/>
-      <c r="Q62" s="120"/>
+      <c r="G62" s="18"/>
+      <c r="H62" s="114"/>
+      <c r="I62" s="115"/>
+      <c r="J62" s="22"/>
+      <c r="K62" s="22"/>
+      <c r="L62" s="9"/>
+      <c r="M62" s="22"/>
+      <c r="N62" s="22"/>
+      <c r="O62" s="22"/>
+      <c r="P62" s="23"/>
+      <c r="Q62" s="180">
+        <v>0.9375</v>
+      </c>
     </row>
     <row r="63" spans="1:18" ht="15" customHeight="1">
-      <c r="A63" s="115">
-        <v>0.95833333333333337</v>
-      </c>
-      <c r="B63" s="20"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="25"/>
+      <c r="A63" s="182"/>
+      <c r="B63" s="70"/>
+      <c r="C63" s="71"/>
+      <c r="D63" s="3"/>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
-      <c r="G63" s="23"/>
-      <c r="H63" s="166"/>
-      <c r="I63" s="167"/>
-      <c r="J63" s="30"/>
-      <c r="K63" s="30"/>
-      <c r="L63" s="30"/>
-      <c r="M63" s="30"/>
-      <c r="N63" s="30"/>
-      <c r="O63" s="30"/>
-      <c r="P63" s="31"/>
-      <c r="Q63" s="120">
+      <c r="G63" s="18"/>
+      <c r="H63" s="114"/>
+      <c r="I63" s="115"/>
+      <c r="J63" s="22"/>
+      <c r="K63" s="22"/>
+      <c r="L63" s="9"/>
+      <c r="M63" s="22"/>
+      <c r="N63" s="22"/>
+      <c r="O63" s="22"/>
+      <c r="P63" s="23"/>
+      <c r="Q63" s="180"/>
+    </row>
+    <row r="64" spans="1:18" ht="15" customHeight="1">
+      <c r="A64" s="182">
         <v>0.95833333333333337</v>
       </c>
-    </row>
-    <row r="64" spans="1:18" ht="15" customHeight="1" thickBot="1">
-      <c r="A64" s="116"/>
-      <c r="B64" s="21"/>
-      <c r="C64" s="19"/>
-      <c r="D64" s="26"/>
-      <c r="E64" s="19"/>
-      <c r="F64" s="19"/>
-      <c r="G64" s="24"/>
-      <c r="H64" s="64" t="s">
-        <v>36</v>
-      </c>
-      <c r="I64" s="65"/>
-      <c r="J64" s="32"/>
-      <c r="K64" s="33"/>
-      <c r="L64" s="33"/>
-      <c r="M64" s="33"/>
-      <c r="N64" s="33"/>
-      <c r="O64" s="33"/>
-      <c r="P64" s="27"/>
-      <c r="Q64" s="121"/>
-    </row>
-    <row r="65" ht="15" thickTop="1"/>
+      <c r="B64" s="70"/>
+      <c r="C64" s="71"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="18"/>
+      <c r="H64" s="114"/>
+      <c r="I64" s="115"/>
+      <c r="J64" s="22"/>
+      <c r="K64" s="22"/>
+      <c r="L64" s="22"/>
+      <c r="M64" s="22"/>
+      <c r="N64" s="22"/>
+      <c r="O64" s="22"/>
+      <c r="P64" s="23"/>
+      <c r="Q64" s="180">
+        <v>0.95833333333333337</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" ht="15" customHeight="1" thickBot="1">
+      <c r="A65" s="186"/>
+      <c r="B65" s="72"/>
+      <c r="C65" s="73"/>
+      <c r="D65" s="16"/>
+      <c r="E65" s="16"/>
+      <c r="F65" s="16"/>
+      <c r="G65" s="19"/>
+      <c r="H65" s="187" t="s">
+        <v>33</v>
+      </c>
+      <c r="I65" s="188"/>
+      <c r="J65" s="24"/>
+      <c r="K65" s="25"/>
+      <c r="L65" s="25"/>
+      <c r="M65" s="25"/>
+      <c r="N65" s="25"/>
+      <c r="O65" s="25"/>
+      <c r="P65" s="20"/>
+      <c r="Q65" s="181"/>
+    </row>
+    <row r="66" spans="1:17" ht="15" thickTop="1"/>
   </sheetData>
   <mergeCells count="159">
-    <mergeCell ref="L43:M47"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="J38:K41"/>
-    <mergeCell ref="L38:M41"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="H26:I32"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="H38:I42"/>
-    <mergeCell ref="J34:K36"/>
-    <mergeCell ref="H34:I36"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="M51:P52"/>
-    <mergeCell ref="M53:P55"/>
-    <mergeCell ref="H50:I63"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="J51:K59"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="M56:P58"/>
+    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="D47:G51"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="G7:G18"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J21:K25"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J16:K19"/>
+    <mergeCell ref="J44:K48"/>
+    <mergeCell ref="D44:G44"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="Q48:Q49"/>
+    <mergeCell ref="Q50:Q51"/>
+    <mergeCell ref="Q52:Q53"/>
+    <mergeCell ref="Q54:Q55"/>
+    <mergeCell ref="Q56:Q57"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="Q12:Q13"/>
+    <mergeCell ref="Q14:Q15"/>
+    <mergeCell ref="Q18:Q19"/>
+    <mergeCell ref="Q22:Q23"/>
+    <mergeCell ref="Q34:Q35"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="Q38:Q39"/>
+    <mergeCell ref="Q16:Q17"/>
+    <mergeCell ref="Q20:Q21"/>
+    <mergeCell ref="Q32:Q33"/>
+    <mergeCell ref="Q26:Q27"/>
+    <mergeCell ref="Q28:Q29"/>
+    <mergeCell ref="Q24:Q25"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="Q30:Q31"/>
+    <mergeCell ref="Q58:Q59"/>
+    <mergeCell ref="Q60:Q61"/>
+    <mergeCell ref="Q62:Q63"/>
+    <mergeCell ref="Q64:Q65"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="Q40:Q41"/>
+    <mergeCell ref="Q42:Q43"/>
+    <mergeCell ref="Q44:Q45"/>
+    <mergeCell ref="Q46:Q47"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="H21:I25"/>
+    <mergeCell ref="L27:M33"/>
+    <mergeCell ref="J27:K33"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H16:I19"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="L13:M14"/>
+    <mergeCell ref="L7:M11"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="H3:M3"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="J4:K5"/>
+    <mergeCell ref="L4:M5"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I11"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K11"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="J52:K60"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="M57:P59"/>
+    <mergeCell ref="O8:O42"/>
+    <mergeCell ref="P7:P18"/>
+    <mergeCell ref="P20:P26"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="L35:M37"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="H13:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="L21:M25"/>
+    <mergeCell ref="P27:P33"/>
+    <mergeCell ref="P34:P40"/>
+    <mergeCell ref="P41:P47"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C65"/>
+    <mergeCell ref="B7:C40"/>
+    <mergeCell ref="F7:F40"/>
+    <mergeCell ref="G27:G38"/>
+    <mergeCell ref="D7:D41"/>
+    <mergeCell ref="E7:E41"/>
     <mergeCell ref="N7:N41"/>
-    <mergeCell ref="O7:O41"/>
-    <mergeCell ref="P6:P17"/>
-    <mergeCell ref="P19:P25"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="L34:M36"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="H12:I13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="L20:M24"/>
-    <mergeCell ref="P26:P32"/>
-    <mergeCell ref="P33:P39"/>
-    <mergeCell ref="P40:P46"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H6:I10"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K10"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="L12:M13"/>
-    <mergeCell ref="L6:M10"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="H2:M2"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="J3:K4"/>
-    <mergeCell ref="L3:M4"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="H20:I24"/>
-    <mergeCell ref="L26:M32"/>
-    <mergeCell ref="J26:K32"/>
-    <mergeCell ref="Q29:Q30"/>
-    <mergeCell ref="Q57:Q58"/>
-    <mergeCell ref="Q59:Q60"/>
-    <mergeCell ref="Q61:Q62"/>
-    <mergeCell ref="Q63:Q64"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="Q39:Q40"/>
-    <mergeCell ref="Q41:Q42"/>
-    <mergeCell ref="Q43:Q44"/>
-    <mergeCell ref="Q45:Q46"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D43:G43"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B6:C40"/>
-    <mergeCell ref="Q47:Q48"/>
-    <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="Q51:Q52"/>
-    <mergeCell ref="Q53:Q54"/>
-    <mergeCell ref="Q55:Q56"/>
-    <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="Q11:Q12"/>
-    <mergeCell ref="Q13:Q14"/>
-    <mergeCell ref="Q17:Q18"/>
-    <mergeCell ref="Q21:Q22"/>
-    <mergeCell ref="Q33:Q34"/>
-    <mergeCell ref="Q35:Q36"/>
-    <mergeCell ref="Q37:Q38"/>
-    <mergeCell ref="Q15:Q16"/>
-    <mergeCell ref="Q19:Q20"/>
-    <mergeCell ref="Q31:Q32"/>
-    <mergeCell ref="Q25:Q26"/>
-    <mergeCell ref="Q27:Q28"/>
-    <mergeCell ref="Q23:Q24"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H15:I18"/>
-    <mergeCell ref="D52:G52"/>
-    <mergeCell ref="D46:G50"/>
-    <mergeCell ref="D44:G44"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="D6:D41"/>
-    <mergeCell ref="E6:E41"/>
-    <mergeCell ref="F6:F41"/>
-    <mergeCell ref="G6:G17"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J20:K24"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J15:K18"/>
-    <mergeCell ref="J43:K47"/>
-    <mergeCell ref="G26:G41"/>
+    <mergeCell ref="L44:M48"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="J39:K42"/>
+    <mergeCell ref="L39:M42"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="H27:I33"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="H39:I43"/>
+    <mergeCell ref="J35:K37"/>
+    <mergeCell ref="H35:I37"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="M52:P53"/>
+    <mergeCell ref="M54:P56"/>
+    <mergeCell ref="H51:I64"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup scale="50" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup scale="46" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="100"/>
+      <mx:PLV Mode="0" OnePage="0" WScale="20"/>
     </ext>
   </extLst>
 </worksheet>
@@ -5793,30 +5768,30 @@
   <sheetData>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" s="41">
+        <v>44</v>
+      </c>
+      <c r="C6" s="33">
         <v>1.7361111111111112E-2</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C7">
         <v>45</v>
@@ -5824,26 +5799,26 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="41">
+        <v>46</v>
+      </c>
+      <c r="C8" s="33">
         <f>C6*C7</f>
         <v>0.78125</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
         <v>3</v>
       </c>
-      <c r="C11" s="41">
+      <c r="C11" s="33">
         <f>A11*C6</f>
         <v>5.2083333333333336E-2</v>
       </c>
@@ -5852,7 +5827,7 @@
       <c r="A12">
         <v>4</v>
       </c>
-      <c r="C12" s="41">
+      <c r="C12" s="33">
         <f>A12*C6</f>
         <v>6.9444444444444448E-2</v>
       </c>
@@ -5861,211 +5836,211 @@
       <c r="A13">
         <v>5</v>
       </c>
-      <c r="C13" s="41">
+      <c r="C13" s="33">
         <f>A13*C6</f>
         <v>8.6805555555555552E-2</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="42" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" s="43">
+      <c r="A16" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="35">
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="B19" s="57"/>
-      <c r="C19" s="57"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="57"/>
+      <c r="A19" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="47"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="57">
+      <c r="A20" s="47">
         <v>1</v>
       </c>
-      <c r="B20" s="57" t="s">
-        <v>66</v>
-      </c>
-      <c r="C20" s="57">
+      <c r="B20" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="47">
         <v>100</v>
       </c>
-      <c r="D20" s="57">
+      <c r="D20" s="47">
         <v>4</v>
       </c>
-      <c r="E20" s="57"/>
+      <c r="E20" s="47"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="57">
+      <c r="A21" s="47">
         <v>2</v>
       </c>
-      <c r="B21" s="58" t="s">
-        <v>67</v>
-      </c>
-      <c r="C21" s="57">
+      <c r="B21" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="47">
         <v>125</v>
       </c>
-      <c r="D21" s="57">
+      <c r="D21" s="47">
         <v>5</v>
       </c>
-      <c r="E21" s="57"/>
+      <c r="E21" s="47"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="57">
+      <c r="A22" s="47">
         <v>3</v>
       </c>
-      <c r="B22" s="57" t="s">
-        <v>68</v>
-      </c>
-      <c r="C22" s="57">
+      <c r="B22" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="47">
         <v>100</v>
       </c>
-      <c r="D22" s="57">
+      <c r="D22" s="47">
         <v>4</v>
       </c>
-      <c r="E22" s="57"/>
+      <c r="E22" s="47"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="57">
+      <c r="A23" s="47">
         <v>4</v>
       </c>
-      <c r="B23" s="57" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" s="57">
+      <c r="B23" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="47">
         <v>100</v>
       </c>
-      <c r="D23" s="57">
+      <c r="D23" s="47">
         <v>4</v>
       </c>
-      <c r="E23" s="57"/>
+      <c r="E23" s="47"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="57">
+      <c r="A24" s="47">
         <v>5</v>
       </c>
-      <c r="B24" s="57" t="s">
-        <v>66</v>
-      </c>
-      <c r="C24" s="57">
+      <c r="B24" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="47">
         <v>100</v>
       </c>
-      <c r="D24" s="57">
+      <c r="D24" s="47">
         <v>4</v>
       </c>
-      <c r="E24" s="57"/>
+      <c r="E24" s="47"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="57">
+      <c r="A25" s="47">
         <v>6</v>
       </c>
-      <c r="B25" s="58" t="s">
-        <v>67</v>
-      </c>
-      <c r="C25" s="57">
+      <c r="B25" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="47">
         <v>125</v>
       </c>
-      <c r="D25" s="57">
+      <c r="D25" s="47">
         <v>5</v>
       </c>
-      <c r="E25" s="57"/>
+      <c r="E25" s="47"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="57">
+      <c r="A26" s="47">
         <v>7</v>
       </c>
-      <c r="B26" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="C26" s="57">
+      <c r="B26" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="47">
         <v>90</v>
       </c>
-      <c r="D26" s="57">
+      <c r="D26" s="47">
         <v>3</v>
       </c>
-      <c r="E26" s="57"/>
+      <c r="E26" s="47"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="57">
+      <c r="A27" s="47">
         <v>8</v>
       </c>
-      <c r="B27" s="57" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27" s="57">
+      <c r="B27" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="47">
         <v>100</v>
       </c>
-      <c r="D27" s="57">
+      <c r="D27" s="47">
         <v>4</v>
       </c>
-      <c r="E27" s="57"/>
+      <c r="E27" s="47"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="57">
+      <c r="A28" s="47">
         <v>9</v>
       </c>
-      <c r="B28" s="57" t="s">
-        <v>66</v>
-      </c>
-      <c r="C28" s="57">
+      <c r="B28" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="47">
         <v>100</v>
       </c>
-      <c r="D28" s="57">
+      <c r="D28" s="47">
         <v>4</v>
       </c>
-      <c r="E28" s="57"/>
+      <c r="E28" s="47"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="57">
+      <c r="A29" s="47">
         <v>10</v>
       </c>
-      <c r="B29" s="58" t="s">
-        <v>67</v>
-      </c>
-      <c r="C29" s="57">
+      <c r="B29" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="47">
         <v>125</v>
       </c>
-      <c r="D29" s="57">
+      <c r="D29" s="47">
         <v>5</v>
       </c>
-      <c r="E29" s="57"/>
+      <c r="E29" s="47"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="57">
+      <c r="A30" s="47">
         <v>11</v>
       </c>
-      <c r="B30" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="C30" s="57">
+      <c r="B30" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" s="47">
         <v>90</v>
       </c>
-      <c r="D30" s="57">
+      <c r="D30" s="47">
         <v>3</v>
       </c>
-      <c r="E30" s="57"/>
+      <c r="E30" s="47"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="57"/>
-      <c r="B31" s="57"/>
-      <c r="C31" s="57"/>
-      <c r="D31" s="57">
+      <c r="A31" s="47"/>
+      <c r="B31" s="47"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="47">
         <v>45</v>
       </c>
-      <c r="E31" s="57"/>
+      <c r="E31" s="47"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="57"/>
-      <c r="B32" s="57"/>
-      <c r="C32" s="57"/>
-      <c r="D32" s="57"/>
-      <c r="E32" s="57"/>
+      <c r="A32" s="47"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
